--- a/Resultados/Data Augmentation/Resultados Data Augmentation.xlsx
+++ b/Resultados/Data Augmentation/Resultados Data Augmentation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\TFG\Transfer-Learning-EDM\Resultados\Data Augmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE35F15-CC9E-4AA5-A9CC-9CD7D83ED3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F1E81F-3264-43FD-94B6-C366CEE2748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CrossValidation rgb 16batch" sheetId="1" r:id="rId1"/>
+    <sheet name="Holdout rgb 16batch" sheetId="2" r:id="rId1"/>
+    <sheet name="CrossValidation rgb 16batch" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="271">
   <si>
     <t>SIN MESSIDOR</t>
   </si>
@@ -846,6 +847,9 @@
   </si>
   <si>
     <t>[[6 2] [3 11]]</t>
+  </si>
+  <si>
+    <t>InceptionResNetV2</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1060,25 +1064,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,10 +1083,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1385,10 +1392,1068 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D08454D-B46C-4CA7-8F24-CCBFB5D6C7D1}">
+  <dimension ref="B2:K81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70:K81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="3">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="22" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D25" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="3">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="43" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="3">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="64" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B65" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D67" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="3">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="27"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="27"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="27"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" s="27"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="27"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="9"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="27"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="27"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="27"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M127" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="K127" zoomScale="90" workbookViewId="0">
       <selection activeCell="U153" sqref="U153"/>
     </sheetView>
   </sheetViews>
@@ -1421,26 +2486,26 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="O5" s="17" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="O5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20" t="s">
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="21"/>
-      <c r="T5" s="22"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
@@ -1493,10 +2558,10 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="3">
         <v>0.75529999999999997</v>
       </c>
@@ -1515,12 +2580,12 @@
       <c r="I7" s="3">
         <v>0.83</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="M7" s="23" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="M7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="18"/>
       <c r="O7" s="3">
         <v>0.75529999999999997</v>
       </c>
@@ -1539,11 +2604,11 @@
       <c r="T7" s="3">
         <v>0.83</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1573,7 +2638,7 @@
       <c r="K8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="24" t="s">
         <v>11</v>
       </c>
       <c r="N8" s="4" t="s">
@@ -1605,7 +2670,7 @@
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1633,7 +2698,7 @@
       <c r="K9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="M9" s="15"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1652,7 +2717,7 @@
       <c r="S9" s="6">
         <v>0.81</v>
       </c>
-      <c r="T9" s="26">
+      <c r="T9" s="14">
         <v>0.87</v>
       </c>
       <c r="U9" s="7" t="s">
@@ -1663,7 +2728,7 @@
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1691,7 +2756,7 @@
       <c r="K10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M10" s="15"/>
+      <c r="M10" s="25"/>
       <c r="N10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1721,7 +2786,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1749,7 +2814,7 @@
       <c r="K11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M11" s="15"/>
+      <c r="M11" s="25"/>
       <c r="N11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +2844,7 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1807,7 +2872,7 @@
       <c r="K12" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M12" s="15"/>
+      <c r="M12" s="25"/>
       <c r="N12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1837,7 +2902,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1867,7 +2932,7 @@
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="M13" s="16"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1899,7 +2964,7 @@
       <c r="V13" s="7"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1929,7 +2994,7 @@
       <c r="K14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="24" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="4" t="s">
@@ -1961,7 +3026,7 @@
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1989,7 +3054,7 @@
       <c r="K15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="15"/>
+      <c r="M15" s="25"/>
       <c r="N15" s="4" t="s">
         <v>16</v>
       </c>
@@ -2019,7 +3084,7 @@
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
@@ -2047,7 +3112,7 @@
       <c r="K16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M16" s="15"/>
+      <c r="M16" s="25"/>
       <c r="N16" s="4" t="s">
         <v>18</v>
       </c>
@@ -2077,7 +3142,7 @@
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2105,7 +3170,7 @@
       <c r="K17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="15"/>
+      <c r="M17" s="25"/>
       <c r="N17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2135,7 +3200,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2163,7 +3228,7 @@
       <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="15"/>
+      <c r="M18" s="25"/>
       <c r="N18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2193,7 +3258,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2223,7 +3288,7 @@
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="M19" s="16"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2255,7 +3320,7 @@
       <c r="V19" s="7"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2285,7 +3350,7 @@
       <c r="K20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="20" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="4" t="s">
@@ -2317,7 +3382,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
@@ -2345,7 +3410,7 @@
       <c r="K21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="13"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="4" t="s">
         <v>16</v>
       </c>
@@ -2375,7 +3440,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
@@ -2403,7 +3468,7 @@
       <c r="K22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="13"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="4" t="s">
         <v>18</v>
       </c>
@@ -2433,7 +3498,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
@@ -2461,7 +3526,7 @@
       <c r="K23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="13"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="4" t="s">
         <v>20</v>
       </c>
@@ -2491,7 +3556,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
@@ -2519,7 +3584,7 @@
       <c r="K24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M24" s="13"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="4" t="s">
         <v>21</v>
       </c>
@@ -2549,7 +3614,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
@@ -2579,7 +3644,7 @@
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-      <c r="M25" s="13"/>
+      <c r="M25" s="20"/>
       <c r="N25" s="4" t="s">
         <v>23</v>
       </c>
@@ -2611,7 +3676,7 @@
       <c r="V25" s="10"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2641,7 +3706,7 @@
       <c r="K26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="20" t="s">
         <v>44</v>
       </c>
       <c r="N26" s="4" t="s">
@@ -2673,7 +3738,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="4" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +3766,7 @@
       <c r="K27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="13"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="4" t="s">
         <v>16</v>
       </c>
@@ -2731,7 +3796,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
@@ -2759,7 +3824,7 @@
       <c r="K28" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M28" s="13"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="4" t="s">
         <v>18</v>
       </c>
@@ -2789,7 +3854,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="4" t="s">
         <v>20</v>
       </c>
@@ -2817,7 +3882,7 @@
       <c r="K29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="13"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="4" t="s">
         <v>20</v>
       </c>
@@ -2847,7 +3912,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="4" t="s">
         <v>21</v>
       </c>
@@ -2875,7 +3940,7 @@
       <c r="K30" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M30" s="13"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="4" t="s">
         <v>21</v>
       </c>
@@ -2905,7 +3970,7 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="4" t="s">
         <v>23</v>
       </c>
@@ -2935,7 +4000,7 @@
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
-      <c r="M31" s="13"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="4" t="s">
         <v>23</v>
       </c>
@@ -2967,7 +4032,7 @@
       <c r="V31" s="10"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2997,7 +4062,7 @@
       <c r="K32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="20" t="s">
         <v>57</v>
       </c>
       <c r="N32" s="4" t="s">
@@ -3029,7 +4094,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="4" t="s">
         <v>16</v>
       </c>
@@ -3057,7 +4122,7 @@
       <c r="K33" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M33" s="13"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="4" t="s">
         <v>16</v>
       </c>
@@ -3087,7 +4152,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="4" t="s">
         <v>18</v>
       </c>
@@ -3115,7 +4180,7 @@
       <c r="K34" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M34" s="13"/>
+      <c r="M34" s="20"/>
       <c r="N34" s="4" t="s">
         <v>18</v>
       </c>
@@ -3145,7 +4210,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="4" t="s">
         <v>20</v>
       </c>
@@ -3173,7 +4238,7 @@
       <c r="K35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="13"/>
+      <c r="M35" s="20"/>
       <c r="N35" s="4" t="s">
         <v>20</v>
       </c>
@@ -3186,10 +4251,10 @@
       <c r="Q35" s="5">
         <v>0.61</v>
       </c>
-      <c r="R35" s="26">
+      <c r="R35" s="14">
         <v>0.85</v>
       </c>
-      <c r="S35" s="26">
+      <c r="S35" s="14">
         <v>0.84</v>
       </c>
       <c r="T35" s="6">
@@ -3203,7 +4268,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="4" t="s">
         <v>21</v>
       </c>
@@ -3231,7 +4296,7 @@
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="13"/>
+      <c r="M36" s="20"/>
       <c r="N36" s="4" t="s">
         <v>21</v>
       </c>
@@ -3261,7 +4326,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="4" t="s">
         <v>23</v>
       </c>
@@ -3291,7 +4356,7 @@
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="M37" s="13"/>
+      <c r="M37" s="20"/>
       <c r="N37" s="4" t="s">
         <v>23</v>
       </c>
@@ -3300,7 +4365,7 @@
         <v>0.51</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" ref="O37:T37" si="9">(P32+P33+P34+P35+P36)/5</f>
+        <f t="shared" ref="P37:T37" si="9">(P32+P33+P34+P35+P36)/5</f>
         <v>0.496</v>
       </c>
       <c r="Q37" s="4">
@@ -3323,7 +4388,7 @@
       <c r="V37" s="7"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -3353,7 +4418,7 @@
       <c r="K38" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M38" s="13" t="s">
+      <c r="M38" s="20" t="s">
         <v>63</v>
       </c>
       <c r="N38" s="4" t="s">
@@ -3385,7 +4450,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="4" t="s">
         <v>16</v>
       </c>
@@ -3413,7 +4478,7 @@
       <c r="K39" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M39" s="13"/>
+      <c r="M39" s="20"/>
       <c r="N39" s="4" t="s">
         <v>16</v>
       </c>
@@ -3443,7 +4508,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="4" t="s">
         <v>18</v>
       </c>
@@ -3471,7 +4536,7 @@
       <c r="K40" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M40" s="13"/>
+      <c r="M40" s="20"/>
       <c r="N40" s="4" t="s">
         <v>18</v>
       </c>
@@ -3501,7 +4566,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="4" t="s">
         <v>20</v>
       </c>
@@ -3529,7 +4594,7 @@
       <c r="K41" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M41" s="13"/>
+      <c r="M41" s="20"/>
       <c r="N41" s="4" t="s">
         <v>20</v>
       </c>
@@ -3559,7 +4624,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="4" t="s">
         <v>21</v>
       </c>
@@ -3587,7 +4652,7 @@
       <c r="K42" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M42" s="13"/>
+      <c r="M42" s="20"/>
       <c r="N42" s="4" t="s">
         <v>21</v>
       </c>
@@ -3617,7 +4682,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="4" t="s">
         <v>23</v>
       </c>
@@ -3647,7 +4712,7 @@
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="M43" s="13"/>
+      <c r="M43" s="20"/>
       <c r="N43" s="4" t="s">
         <v>23</v>
       </c>
@@ -3679,7 +4744,7 @@
       <c r="V43" s="7"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="20" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3709,7 +4774,7 @@
       <c r="K44" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M44" s="13" t="s">
+      <c r="M44" s="20" t="s">
         <v>66</v>
       </c>
       <c r="N44" s="4" t="s">
@@ -3741,7 +4806,7 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B45" s="13"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="4" t="s">
         <v>16</v>
       </c>
@@ -3769,7 +4834,7 @@
       <c r="K45" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M45" s="13"/>
+      <c r="M45" s="20"/>
       <c r="N45" s="4" t="s">
         <v>16</v>
       </c>
@@ -3799,7 +4864,7 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="4" t="s">
         <v>18</v>
       </c>
@@ -3827,7 +4892,7 @@
       <c r="K46" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M46" s="13"/>
+      <c r="M46" s="20"/>
       <c r="N46" s="4" t="s">
         <v>18</v>
       </c>
@@ -3857,7 +4922,7 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B47" s="13"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="4" t="s">
         <v>20</v>
       </c>
@@ -3885,7 +4950,7 @@
       <c r="K47" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M47" s="13"/>
+      <c r="M47" s="20"/>
       <c r="N47" s="4" t="s">
         <v>20</v>
       </c>
@@ -3915,7 +4980,7 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B48" s="13"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="4" t="s">
         <v>21</v>
       </c>
@@ -3943,7 +5008,7 @@
       <c r="K48" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M48" s="13"/>
+      <c r="M48" s="20"/>
       <c r="N48" s="4" t="s">
         <v>21</v>
       </c>
@@ -3956,13 +5021,13 @@
       <c r="Q48" s="5">
         <v>0.6</v>
       </c>
-      <c r="R48" s="26">
+      <c r="R48" s="14">
         <v>0.84</v>
       </c>
-      <c r="S48" s="26">
+      <c r="S48" s="14">
         <v>0.85</v>
       </c>
-      <c r="T48" s="26">
+      <c r="T48" s="14">
         <v>0.9</v>
       </c>
       <c r="U48" s="7" t="s">
@@ -3973,7 +5038,7 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B49" s="13"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="4" t="s">
         <v>23</v>
       </c>
@@ -4003,7 +5068,7 @@
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="M49" s="13"/>
+      <c r="M49" s="20"/>
       <c r="N49" s="4" t="s">
         <v>23</v>
       </c>
@@ -4035,7 +5100,7 @@
       <c r="V49" s="7"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4065,7 +5130,7 @@
       <c r="K50" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M50" s="13" t="s">
+      <c r="M50" s="20" t="s">
         <v>69</v>
       </c>
       <c r="N50" s="4" t="s">
@@ -4097,7 +5162,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B51" s="13"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="4" t="s">
         <v>16</v>
       </c>
@@ -4125,7 +5190,7 @@
       <c r="K51" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M51" s="13"/>
+      <c r="M51" s="20"/>
       <c r="N51" s="4" t="s">
         <v>16</v>
       </c>
@@ -4155,7 +5220,7 @@
       </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B52" s="13"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="4" t="s">
         <v>18</v>
       </c>
@@ -4183,7 +5248,7 @@
       <c r="K52" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M52" s="13"/>
+      <c r="M52" s="20"/>
       <c r="N52" s="4" t="s">
         <v>18</v>
       </c>
@@ -4213,7 +5278,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B53" s="13"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="4" t="s">
         <v>20</v>
       </c>
@@ -4241,7 +5306,7 @@
       <c r="K53" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M53" s="13"/>
+      <c r="M53" s="20"/>
       <c r="N53" s="4" t="s">
         <v>20</v>
       </c>
@@ -4271,7 +5336,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B54" s="13"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="4" t="s">
         <v>21</v>
       </c>
@@ -4299,7 +5364,7 @@
       <c r="K54" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M54" s="13"/>
+      <c r="M54" s="20"/>
       <c r="N54" s="4" t="s">
         <v>21</v>
       </c>
@@ -4329,7 +5394,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B55" s="13"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="4" t="s">
         <v>23</v>
       </c>
@@ -4359,7 +5424,7 @@
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
-      <c r="M55" s="13"/>
+      <c r="M55" s="20"/>
       <c r="N55" s="4" t="s">
         <v>23</v>
       </c>
@@ -4391,7 +5456,7 @@
       <c r="V55" s="7"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -4421,7 +5486,7 @@
       <c r="K56" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M56" s="13" t="s">
+      <c r="M56" s="20" t="s">
         <v>72</v>
       </c>
       <c r="N56" s="4" t="s">
@@ -4453,7 +5518,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B57" s="13"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="4" t="s">
         <v>16</v>
       </c>
@@ -4481,7 +5546,7 @@
       <c r="K57" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M57" s="13"/>
+      <c r="M57" s="20"/>
       <c r="N57" s="4" t="s">
         <v>16</v>
       </c>
@@ -4494,13 +5559,13 @@
       <c r="Q57" s="5">
         <v>0.48</v>
       </c>
-      <c r="R57" s="26">
+      <c r="R57" s="14">
         <v>0.9</v>
       </c>
-      <c r="S57" s="26">
+      <c r="S57" s="14">
         <v>0.9</v>
       </c>
-      <c r="T57" s="26">
+      <c r="T57" s="14">
         <v>0.87</v>
       </c>
       <c r="U57" s="7" t="s">
@@ -4511,7 +5576,7 @@
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B58" s="13"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="4" t="s">
         <v>18</v>
       </c>
@@ -4539,7 +5604,7 @@
       <c r="K58" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M58" s="13"/>
+      <c r="M58" s="20"/>
       <c r="N58" s="4" t="s">
         <v>18</v>
       </c>
@@ -4569,7 +5634,7 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B59" s="13"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="4" t="s">
         <v>20</v>
       </c>
@@ -4597,7 +5662,7 @@
       <c r="K59" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M59" s="13"/>
+      <c r="M59" s="20"/>
       <c r="N59" s="4" t="s">
         <v>20</v>
       </c>
@@ -4627,7 +5692,7 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B60" s="13"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="4" t="s">
         <v>21</v>
       </c>
@@ -4655,7 +5720,7 @@
       <c r="K60" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M60" s="13"/>
+      <c r="M60" s="20"/>
       <c r="N60" s="4" t="s">
         <v>21</v>
       </c>
@@ -4685,7 +5750,7 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B61" s="13"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="4" t="s">
         <v>23</v>
       </c>
@@ -4715,7 +5780,7 @@
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
-      <c r="M61" s="13"/>
+      <c r="M61" s="20"/>
       <c r="N61" s="4" t="s">
         <v>23</v>
       </c>
@@ -4747,7 +5812,7 @@
       <c r="V61" s="7"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -4777,7 +5842,7 @@
       <c r="K62" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M62" s="13" t="s">
+      <c r="M62" s="20" t="s">
         <v>74</v>
       </c>
       <c r="N62" s="4" t="s">
@@ -4809,7 +5874,7 @@
       </c>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B63" s="13"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="4" t="s">
         <v>16</v>
       </c>
@@ -4837,7 +5902,7 @@
       <c r="K63" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M63" s="13"/>
+      <c r="M63" s="20"/>
       <c r="N63" s="4" t="s">
         <v>16</v>
       </c>
@@ -4850,13 +5915,13 @@
       <c r="Q63" s="5">
         <v>0.49</v>
       </c>
-      <c r="R63" s="26">
+      <c r="R63" s="14">
         <v>0.85</v>
       </c>
-      <c r="S63" s="26">
+      <c r="S63" s="14">
         <v>0.85</v>
       </c>
-      <c r="T63" s="26">
+      <c r="T63" s="14">
         <v>0.83</v>
       </c>
       <c r="U63" s="7" t="s">
@@ -4867,7 +5932,7 @@
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B64" s="13"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="4" t="s">
         <v>18</v>
       </c>
@@ -4880,7 +5945,7 @@
       <c r="F64" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G64" s="13">
         <v>0.69</v>
       </c>
       <c r="H64" s="6">
@@ -4895,7 +5960,7 @@
       <c r="K64" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M64" s="13"/>
+      <c r="M64" s="20"/>
       <c r="N64" s="4" t="s">
         <v>18</v>
       </c>
@@ -4925,7 +5990,7 @@
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B65" s="13"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="4" t="s">
         <v>20</v>
       </c>
@@ -4953,7 +6018,7 @@
       <c r="K65" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M65" s="13"/>
+      <c r="M65" s="20"/>
       <c r="N65" s="4" t="s">
         <v>20</v>
       </c>
@@ -4983,7 +6048,7 @@
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B66" s="13"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="4" t="s">
         <v>21</v>
       </c>
@@ -5011,7 +6076,7 @@
       <c r="K66" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M66" s="13"/>
+      <c r="M66" s="20"/>
       <c r="N66" s="4" t="s">
         <v>21</v>
       </c>
@@ -5041,7 +6106,7 @@
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B67" s="13"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="4" t="s">
         <v>23</v>
       </c>
@@ -5071,7 +6136,7 @@
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
-      <c r="M67" s="13"/>
+      <c r="M67" s="20"/>
       <c r="N67" s="4" t="s">
         <v>23</v>
       </c>
@@ -5103,7 +6168,7 @@
       <c r="V67" s="7"/>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="20" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -5133,7 +6198,7 @@
       <c r="K68" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M68" s="13" t="s">
+      <c r="M68" s="20" t="s">
         <v>79</v>
       </c>
       <c r="N68" s="4" t="s">
@@ -5165,7 +6230,7 @@
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B69" s="13"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="4" t="s">
         <v>16</v>
       </c>
@@ -5193,7 +6258,7 @@
       <c r="K69" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M69" s="13"/>
+      <c r="M69" s="20"/>
       <c r="N69" s="4" t="s">
         <v>16</v>
       </c>
@@ -5223,7 +6288,7 @@
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B70" s="13"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="4" t="s">
         <v>18</v>
       </c>
@@ -5251,7 +6316,7 @@
       <c r="K70" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="13"/>
+      <c r="M70" s="20"/>
       <c r="N70" s="4" t="s">
         <v>18</v>
       </c>
@@ -5281,7 +6346,7 @@
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B71" s="13"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="4" t="s">
         <v>20</v>
       </c>
@@ -5309,7 +6374,7 @@
       <c r="K71" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M71" s="13"/>
+      <c r="M71" s="20"/>
       <c r="N71" s="4" t="s">
         <v>20</v>
       </c>
@@ -5339,7 +6404,7 @@
       </c>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B72" s="13"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="4" t="s">
         <v>21</v>
       </c>
@@ -5367,7 +6432,7 @@
       <c r="K72" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M72" s="13"/>
+      <c r="M72" s="20"/>
       <c r="N72" s="4" t="s">
         <v>21</v>
       </c>
@@ -5397,7 +6462,7 @@
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B73" s="13"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="4" t="s">
         <v>23</v>
       </c>
@@ -5427,7 +6492,7 @@
       </c>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
-      <c r="M73" s="13"/>
+      <c r="M73" s="20"/>
       <c r="N73" s="4" t="s">
         <v>23</v>
       </c>
@@ -5477,26 +6542,26 @@
       </c>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="18"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20" t="s">
+      <c r="E82" s="22"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H82" s="21"/>
-      <c r="I82" s="22"/>
-      <c r="O82" s="17" t="s">
+      <c r="H82" s="16"/>
+      <c r="I82" s="17"/>
+      <c r="O82" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="20" t="s">
+      <c r="P82" s="22"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="S82" s="21"/>
-      <c r="T82" s="22"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="17"/>
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D83" s="2" t="s">
@@ -5549,10 +6614,10 @@
       </c>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="23"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="3">
         <v>0.75529999999999997</v>
       </c>
@@ -5571,12 +6636,12 @@
       <c r="I84" s="3">
         <v>0.83</v>
       </c>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="M84" s="23" t="s">
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="M84" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N84" s="23"/>
+      <c r="N84" s="18"/>
       <c r="O84" s="3">
         <v>0.75529999999999997</v>
       </c>
@@ -5595,11 +6660,11 @@
       <c r="T84" s="3">
         <v>0.83</v>
       </c>
-      <c r="U84" s="24"/>
-      <c r="V84" s="24"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19"/>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -5629,7 +6694,7 @@
       <c r="K85" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M85" s="14" t="s">
+      <c r="M85" s="24" t="s">
         <v>11</v>
       </c>
       <c r="N85" s="4" t="s">
@@ -5661,7 +6726,7 @@
       </c>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B86" s="15"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="4" t="s">
         <v>16</v>
       </c>
@@ -5689,7 +6754,7 @@
       <c r="K86" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="M86" s="15"/>
+      <c r="M86" s="25"/>
       <c r="N86" s="4" t="s">
         <v>16</v>
       </c>
@@ -5719,7 +6784,7 @@
       </c>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B87" s="15"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="4" t="s">
         <v>18</v>
       </c>
@@ -5747,7 +6812,7 @@
       <c r="K87" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M87" s="15"/>
+      <c r="M87" s="25"/>
       <c r="N87" s="4" t="s">
         <v>18</v>
       </c>
@@ -5777,7 +6842,7 @@
       </c>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B88" s="15"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="4" t="s">
         <v>20</v>
       </c>
@@ -5805,7 +6870,7 @@
       <c r="K88" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M88" s="15"/>
+      <c r="M88" s="25"/>
       <c r="N88" s="4" t="s">
         <v>20</v>
       </c>
@@ -5835,7 +6900,7 @@
       </c>
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B89" s="15"/>
+      <c r="B89" s="25"/>
       <c r="C89" s="4" t="s">
         <v>21</v>
       </c>
@@ -5863,7 +6928,7 @@
       <c r="K89" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M89" s="15"/>
+      <c r="M89" s="25"/>
       <c r="N89" s="4" t="s">
         <v>21</v>
       </c>
@@ -5893,7 +6958,7 @@
       </c>
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B90" s="16"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="4" t="s">
         <v>23</v>
       </c>
@@ -5923,7 +6988,7 @@
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
-      <c r="M90" s="16"/>
+      <c r="M90" s="26"/>
       <c r="N90" s="4" t="s">
         <v>23</v>
       </c>
@@ -5955,7 +7020,7 @@
       <c r="V90" s="7"/>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -5985,7 +7050,7 @@
       <c r="K91" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M91" s="14" t="s">
+      <c r="M91" s="24" t="s">
         <v>24</v>
       </c>
       <c r="N91" s="4" t="s">
@@ -6017,7 +7082,7 @@
       </c>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B92" s="15"/>
+      <c r="B92" s="25"/>
       <c r="C92" s="4" t="s">
         <v>16</v>
       </c>
@@ -6045,7 +7110,7 @@
       <c r="K92" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M92" s="15"/>
+      <c r="M92" s="25"/>
       <c r="N92" s="4" t="s">
         <v>16</v>
       </c>
@@ -6075,7 +7140,7 @@
       </c>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B93" s="15"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="4" t="s">
         <v>18</v>
       </c>
@@ -6103,7 +7168,7 @@
       <c r="K93" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M93" s="15"/>
+      <c r="M93" s="25"/>
       <c r="N93" s="4" t="s">
         <v>18</v>
       </c>
@@ -6133,7 +7198,7 @@
       </c>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B94" s="15"/>
+      <c r="B94" s="25"/>
       <c r="C94" s="4" t="s">
         <v>20</v>
       </c>
@@ -6161,7 +7226,7 @@
       <c r="K94" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M94" s="15"/>
+      <c r="M94" s="25"/>
       <c r="N94" s="4" t="s">
         <v>20</v>
       </c>
@@ -6191,7 +7256,7 @@
       </c>
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B95" s="15"/>
+      <c r="B95" s="25"/>
       <c r="C95" s="4" t="s">
         <v>21</v>
       </c>
@@ -6219,7 +7284,7 @@
       <c r="K95" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M95" s="15"/>
+      <c r="M95" s="25"/>
       <c r="N95" s="4" t="s">
         <v>21</v>
       </c>
@@ -6249,7 +7314,7 @@
       </c>
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B96" s="16"/>
+      <c r="B96" s="26"/>
       <c r="C96" s="4" t="s">
         <v>23</v>
       </c>
@@ -6279,7 +7344,7 @@
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
-      <c r="M96" s="16"/>
+      <c r="M96" s="26"/>
       <c r="N96" s="4" t="s">
         <v>23</v>
       </c>
@@ -6311,7 +7376,7 @@
       <c r="V96" s="7"/>
     </row>
     <row r="97" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -6341,7 +7406,7 @@
       <c r="K97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M97" s="13" t="s">
+      <c r="M97" s="20" t="s">
         <v>34</v>
       </c>
       <c r="N97" s="4" t="s">
@@ -6373,7 +7438,7 @@
       </c>
     </row>
     <row r="98" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B98" s="13"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="4" t="s">
         <v>16</v>
       </c>
@@ -6401,7 +7466,7 @@
       <c r="K98" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M98" s="13"/>
+      <c r="M98" s="20"/>
       <c r="N98" s="4" t="s">
         <v>16</v>
       </c>
@@ -6431,7 +7496,7 @@
       </c>
     </row>
     <row r="99" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B99" s="13"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="4" t="s">
         <v>18</v>
       </c>
@@ -6459,7 +7524,7 @@
       <c r="K99" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M99" s="13"/>
+      <c r="M99" s="20"/>
       <c r="N99" s="4" t="s">
         <v>18</v>
       </c>
@@ -6489,7 +7554,7 @@
       </c>
     </row>
     <row r="100" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B100" s="13"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="4" t="s">
         <v>20</v>
       </c>
@@ -6517,7 +7582,7 @@
       <c r="K100" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M100" s="13"/>
+      <c r="M100" s="20"/>
       <c r="N100" s="4" t="s">
         <v>20</v>
       </c>
@@ -6547,7 +7612,7 @@
       </c>
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B101" s="13"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="4" t="s">
         <v>21</v>
       </c>
@@ -6575,7 +7640,7 @@
       <c r="K101" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M101" s="13"/>
+      <c r="M101" s="20"/>
       <c r="N101" s="4" t="s">
         <v>21</v>
       </c>
@@ -6605,7 +7670,7 @@
       </c>
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B102" s="13"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="4" t="s">
         <v>23</v>
       </c>
@@ -6635,7 +7700,7 @@
       </c>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
-      <c r="M102" s="13"/>
+      <c r="M102" s="20"/>
       <c r="N102" s="4" t="s">
         <v>23</v>
       </c>
@@ -6667,7 +7732,7 @@
       <c r="V102" s="10"/>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -6697,7 +7762,7 @@
       <c r="K103" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M103" s="13" t="s">
+      <c r="M103" s="20" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="4" t="s">
@@ -6729,7 +7794,7 @@
       </c>
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B104" s="13"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="4" t="s">
         <v>16</v>
       </c>
@@ -6757,7 +7822,7 @@
       <c r="K104" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M104" s="13"/>
+      <c r="M104" s="20"/>
       <c r="N104" s="4" t="s">
         <v>16</v>
       </c>
@@ -6787,7 +7852,7 @@
       </c>
     </row>
     <row r="105" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B105" s="13"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="4" t="s">
         <v>18</v>
       </c>
@@ -6815,7 +7880,7 @@
       <c r="K105" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M105" s="13"/>
+      <c r="M105" s="20"/>
       <c r="N105" s="4" t="s">
         <v>18</v>
       </c>
@@ -6845,7 +7910,7 @@
       </c>
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B106" s="13"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="4" t="s">
         <v>20</v>
       </c>
@@ -6873,7 +7938,7 @@
       <c r="K106" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M106" s="13"/>
+      <c r="M106" s="20"/>
       <c r="N106" s="4" t="s">
         <v>20</v>
       </c>
@@ -6903,7 +7968,7 @@
       </c>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B107" s="13"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="4" t="s">
         <v>21</v>
       </c>
@@ -6931,7 +7996,7 @@
       <c r="K107" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="M107" s="13"/>
+      <c r="M107" s="20"/>
       <c r="N107" s="4" t="s">
         <v>21</v>
       </c>
@@ -6961,7 +8026,7 @@
       </c>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B108" s="13"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="4" t="s">
         <v>23</v>
       </c>
@@ -6991,7 +8056,7 @@
       </c>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
-      <c r="M108" s="13"/>
+      <c r="M108" s="20"/>
       <c r="N108" s="4" t="s">
         <v>23</v>
       </c>
@@ -7023,7 +8088,7 @@
       <c r="V108" s="10"/>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -7053,7 +8118,7 @@
       <c r="K109" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M109" s="13" t="s">
+      <c r="M109" s="20" t="s">
         <v>57</v>
       </c>
       <c r="N109" s="4" t="s">
@@ -7085,7 +8150,7 @@
       </c>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B110" s="13"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="4" t="s">
         <v>16</v>
       </c>
@@ -7113,7 +8178,7 @@
       <c r="K110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M110" s="13"/>
+      <c r="M110" s="20"/>
       <c r="N110" s="4" t="s">
         <v>16</v>
       </c>
@@ -7143,7 +8208,7 @@
       </c>
     </row>
     <row r="111" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B111" s="13"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="4" t="s">
         <v>18</v>
       </c>
@@ -7171,7 +8236,7 @@
       <c r="K111" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M111" s="13"/>
+      <c r="M111" s="20"/>
       <c r="N111" s="4" t="s">
         <v>18</v>
       </c>
@@ -7201,7 +8266,7 @@
       </c>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B112" s="13"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="4" t="s">
         <v>20</v>
       </c>
@@ -7229,7 +8294,7 @@
       <c r="K112" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M112" s="13"/>
+      <c r="M112" s="20"/>
       <c r="N112" s="4" t="s">
         <v>20</v>
       </c>
@@ -7259,7 +8324,7 @@
       </c>
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B113" s="13"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="4" t="s">
         <v>21</v>
       </c>
@@ -7287,7 +8352,7 @@
       <c r="K113" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M113" s="13"/>
+      <c r="M113" s="20"/>
       <c r="N113" s="4" t="s">
         <v>21</v>
       </c>
@@ -7317,7 +8382,7 @@
       </c>
     </row>
     <row r="114" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B114" s="13"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="4" t="s">
         <v>23</v>
       </c>
@@ -7347,7 +8412,7 @@
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
-      <c r="M114" s="13"/>
+      <c r="M114" s="20"/>
       <c r="N114" s="4" t="s">
         <v>23</v>
       </c>
@@ -7379,7 +8444,7 @@
       <c r="V114" s="7"/>
     </row>
     <row r="115" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -7409,7 +8474,7 @@
       <c r="K115" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M115" s="13" t="s">
+      <c r="M115" s="20" t="s">
         <v>63</v>
       </c>
       <c r="N115" s="4" t="s">
@@ -7441,7 +8506,7 @@
       </c>
     </row>
     <row r="116" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B116" s="13"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="4" t="s">
         <v>16</v>
       </c>
@@ -7469,7 +8534,7 @@
       <c r="K116" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M116" s="13"/>
+      <c r="M116" s="20"/>
       <c r="N116" s="4" t="s">
         <v>16</v>
       </c>
@@ -7499,7 +8564,7 @@
       </c>
     </row>
     <row r="117" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B117" s="13"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="4" t="s">
         <v>18</v>
       </c>
@@ -7527,7 +8592,7 @@
       <c r="K117" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="M117" s="13"/>
+      <c r="M117" s="20"/>
       <c r="N117" s="4" t="s">
         <v>18</v>
       </c>
@@ -7557,7 +8622,7 @@
       </c>
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B118" s="13"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="4" t="s">
         <v>20</v>
       </c>
@@ -7585,7 +8650,7 @@
       <c r="K118" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M118" s="13"/>
+      <c r="M118" s="20"/>
       <c r="N118" s="4" t="s">
         <v>20</v>
       </c>
@@ -7615,7 +8680,7 @@
       </c>
     </row>
     <row r="119" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B119" s="13"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="4" t="s">
         <v>21</v>
       </c>
@@ -7643,7 +8708,7 @@
       <c r="K119" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M119" s="13"/>
+      <c r="M119" s="20"/>
       <c r="N119" s="4" t="s">
         <v>21</v>
       </c>
@@ -7673,7 +8738,7 @@
       </c>
     </row>
     <row r="120" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B120" s="13"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="4" t="s">
         <v>23</v>
       </c>
@@ -7703,7 +8768,7 @@
       </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
-      <c r="M120" s="13"/>
+      <c r="M120" s="20"/>
       <c r="N120" s="4" t="s">
         <v>23</v>
       </c>
@@ -7735,7 +8800,7 @@
       <c r="V120" s="7"/>
     </row>
     <row r="121" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="20" t="s">
         <v>66</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -7765,7 +8830,7 @@
       <c r="K121" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M121" s="13" t="s">
+      <c r="M121" s="20" t="s">
         <v>66</v>
       </c>
       <c r="N121" s="4" t="s">
@@ -7797,7 +8862,7 @@
       </c>
     </row>
     <row r="122" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B122" s="13"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="4" t="s">
         <v>16</v>
       </c>
@@ -7825,7 +8890,7 @@
       <c r="K122" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M122" s="13"/>
+      <c r="M122" s="20"/>
       <c r="N122" s="4" t="s">
         <v>16</v>
       </c>
@@ -7855,7 +8920,7 @@
       </c>
     </row>
     <row r="123" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B123" s="13"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="4" t="s">
         <v>18</v>
       </c>
@@ -7883,7 +8948,7 @@
       <c r="K123" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M123" s="13"/>
+      <c r="M123" s="20"/>
       <c r="N123" s="4" t="s">
         <v>18</v>
       </c>
@@ -7913,7 +8978,7 @@
       </c>
     </row>
     <row r="124" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B124" s="13"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="4" t="s">
         <v>20</v>
       </c>
@@ -7941,7 +9006,7 @@
       <c r="K124" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M124" s="13"/>
+      <c r="M124" s="20"/>
       <c r="N124" s="4" t="s">
         <v>20</v>
       </c>
@@ -7971,7 +9036,7 @@
       </c>
     </row>
     <row r="125" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B125" s="13"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="4" t="s">
         <v>21</v>
       </c>
@@ -7999,7 +9064,7 @@
       <c r="K125" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="M125" s="13"/>
+      <c r="M125" s="20"/>
       <c r="N125" s="4" t="s">
         <v>21</v>
       </c>
@@ -8029,7 +9094,7 @@
       </c>
     </row>
     <row r="126" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B126" s="13"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="4" t="s">
         <v>23</v>
       </c>
@@ -8059,7 +9124,7 @@
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
-      <c r="M126" s="13"/>
+      <c r="M126" s="20"/>
       <c r="N126" s="4" t="s">
         <v>23</v>
       </c>
@@ -8091,7 +9156,7 @@
       <c r="V126" s="7"/>
     </row>
     <row r="127" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -8121,7 +9186,7 @@
       <c r="K127" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M127" s="13" t="s">
+      <c r="M127" s="20" t="s">
         <v>69</v>
       </c>
       <c r="N127" s="4" t="s">
@@ -8153,7 +9218,7 @@
       </c>
     </row>
     <row r="128" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B128" s="13"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="4" t="s">
         <v>16</v>
       </c>
@@ -8181,7 +9246,7 @@
       <c r="K128" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M128" s="13"/>
+      <c r="M128" s="20"/>
       <c r="N128" s="4" t="s">
         <v>16</v>
       </c>
@@ -8211,7 +9276,7 @@
       </c>
     </row>
     <row r="129" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B129" s="13"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="4" t="s">
         <v>18</v>
       </c>
@@ -8239,7 +9304,7 @@
       <c r="K129" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M129" s="13"/>
+      <c r="M129" s="20"/>
       <c r="N129" s="4" t="s">
         <v>18</v>
       </c>
@@ -8269,7 +9334,7 @@
       </c>
     </row>
     <row r="130" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B130" s="13"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="4" t="s">
         <v>20</v>
       </c>
@@ -8297,7 +9362,7 @@
       <c r="K130" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M130" s="13"/>
+      <c r="M130" s="20"/>
       <c r="N130" s="4" t="s">
         <v>20</v>
       </c>
@@ -8327,7 +9392,7 @@
       </c>
     </row>
     <row r="131" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B131" s="13"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="4" t="s">
         <v>21</v>
       </c>
@@ -8355,7 +9420,7 @@
       <c r="K131" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M131" s="13"/>
+      <c r="M131" s="20"/>
       <c r="N131" s="4" t="s">
         <v>21</v>
       </c>
@@ -8385,7 +9450,7 @@
       </c>
     </row>
     <row r="132" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B132" s="13"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="4" t="s">
         <v>23</v>
       </c>
@@ -8415,7 +9480,7 @@
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
-      <c r="M132" s="13"/>
+      <c r="M132" s="20"/>
       <c r="N132" s="4" t="s">
         <v>23</v>
       </c>
@@ -8447,7 +9512,7 @@
       <c r="V132" s="7"/>
     </row>
     <row r="133" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -8477,7 +9542,7 @@
       <c r="K133" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M133" s="13" t="s">
+      <c r="M133" s="20" t="s">
         <v>72</v>
       </c>
       <c r="N133" s="4" t="s">
@@ -8509,7 +9574,7 @@
       </c>
     </row>
     <row r="134" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B134" s="13"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="4" t="s">
         <v>16</v>
       </c>
@@ -8537,7 +9602,7 @@
       <c r="K134" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M134" s="13"/>
+      <c r="M134" s="20"/>
       <c r="N134" s="4" t="s">
         <v>16</v>
       </c>
@@ -8567,7 +9632,7 @@
       </c>
     </row>
     <row r="135" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B135" s="13"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="4" t="s">
         <v>18</v>
       </c>
@@ -8595,7 +9660,7 @@
       <c r="K135" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M135" s="13"/>
+      <c r="M135" s="20"/>
       <c r="N135" s="4" t="s">
         <v>18</v>
       </c>
@@ -8625,7 +9690,7 @@
       </c>
     </row>
     <row r="136" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B136" s="13"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="4" t="s">
         <v>20</v>
       </c>
@@ -8653,7 +9718,7 @@
       <c r="K136" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M136" s="13"/>
+      <c r="M136" s="20"/>
       <c r="N136" s="4" t="s">
         <v>20</v>
       </c>
@@ -8683,7 +9748,7 @@
       </c>
     </row>
     <row r="137" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B137" s="13"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="4" t="s">
         <v>21</v>
       </c>
@@ -8711,7 +9776,7 @@
       <c r="K137" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M137" s="13"/>
+      <c r="M137" s="20"/>
       <c r="N137" s="4" t="s">
         <v>21</v>
       </c>
@@ -8741,7 +9806,7 @@
       </c>
     </row>
     <row r="138" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B138" s="13"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="4" t="s">
         <v>23</v>
       </c>
@@ -8771,7 +9836,7 @@
       </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
-      <c r="M138" s="13"/>
+      <c r="M138" s="20"/>
       <c r="N138" s="4" t="s">
         <v>23</v>
       </c>
@@ -8803,7 +9868,7 @@
       <c r="V138" s="7"/>
     </row>
     <row r="139" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -8833,7 +9898,7 @@
       <c r="K139" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M139" s="13" t="s">
+      <c r="M139" s="20" t="s">
         <v>74</v>
       </c>
       <c r="N139" s="4" t="s">
@@ -8865,7 +9930,7 @@
       </c>
     </row>
     <row r="140" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B140" s="13"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="4" t="s">
         <v>16</v>
       </c>
@@ -8893,7 +9958,7 @@
       <c r="K140" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M140" s="13"/>
+      <c r="M140" s="20"/>
       <c r="N140" s="4" t="s">
         <v>16</v>
       </c>
@@ -8923,7 +9988,7 @@
       </c>
     </row>
     <row r="141" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B141" s="13"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="4" t="s">
         <v>18</v>
       </c>
@@ -8951,7 +10016,7 @@
       <c r="K141" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M141" s="13"/>
+      <c r="M141" s="20"/>
       <c r="N141" s="4" t="s">
         <v>18</v>
       </c>
@@ -8981,7 +10046,7 @@
       </c>
     </row>
     <row r="142" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B142" s="13"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="4" t="s">
         <v>20</v>
       </c>
@@ -9009,7 +10074,7 @@
       <c r="K142" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M142" s="13"/>
+      <c r="M142" s="20"/>
       <c r="N142" s="4" t="s">
         <v>20</v>
       </c>
@@ -9039,7 +10104,7 @@
       </c>
     </row>
     <row r="143" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B143" s="13"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="4" t="s">
         <v>21</v>
       </c>
@@ -9067,7 +10132,7 @@
       <c r="K143" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M143" s="13"/>
+      <c r="M143" s="20"/>
       <c r="N143" s="4" t="s">
         <v>21</v>
       </c>
@@ -9097,7 +10162,7 @@
       </c>
     </row>
     <row r="144" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B144" s="13"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="4" t="s">
         <v>23</v>
       </c>
@@ -9127,7 +10192,7 @@
       </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
-      <c r="M144" s="13"/>
+      <c r="M144" s="20"/>
       <c r="N144" s="4" t="s">
         <v>23</v>
       </c>
@@ -9159,7 +10224,7 @@
       <c r="V144" s="7"/>
     </row>
     <row r="145" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B145" s="13" t="s">
+      <c r="B145" s="20" t="s">
         <v>79</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -9189,7 +10254,7 @@
       <c r="K145" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M145" s="13" t="s">
+      <c r="M145" s="20" t="s">
         <v>79</v>
       </c>
       <c r="N145" s="4" t="s">
@@ -9221,7 +10286,7 @@
       </c>
     </row>
     <row r="146" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B146" s="13"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="4" t="s">
         <v>16</v>
       </c>
@@ -9249,7 +10314,7 @@
       <c r="K146" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M146" s="13"/>
+      <c r="M146" s="20"/>
       <c r="N146" s="4" t="s">
         <v>16</v>
       </c>
@@ -9279,7 +10344,7 @@
       </c>
     </row>
     <row r="147" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B147" s="13"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="4" t="s">
         <v>18</v>
       </c>
@@ -9307,7 +10372,7 @@
       <c r="K147" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M147" s="13"/>
+      <c r="M147" s="20"/>
       <c r="N147" s="4" t="s">
         <v>18</v>
       </c>
@@ -9337,7 +10402,7 @@
       </c>
     </row>
     <row r="148" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B148" s="13"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="4" t="s">
         <v>20</v>
       </c>
@@ -9350,10 +10415,10 @@
       <c r="F148" s="5">
         <v>0.68</v>
       </c>
-      <c r="G148" s="26">
+      <c r="G148" s="14">
         <v>0.87</v>
       </c>
-      <c r="H148" s="26">
+      <c r="H148" s="14">
         <v>0.86</v>
       </c>
       <c r="I148" s="6">
@@ -9365,7 +10430,7 @@
       <c r="K148" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M148" s="13"/>
+      <c r="M148" s="20"/>
       <c r="N148" s="4" t="s">
         <v>20</v>
       </c>
@@ -9395,7 +10460,7 @@
       </c>
     </row>
     <row r="149" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B149" s="13"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="4" t="s">
         <v>21</v>
       </c>
@@ -9423,7 +10488,7 @@
       <c r="K149" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M149" s="13"/>
+      <c r="M149" s="20"/>
       <c r="N149" s="4" t="s">
         <v>21</v>
       </c>
@@ -9453,7 +10518,7 @@
       </c>
     </row>
     <row r="150" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B150" s="13"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="4" t="s">
         <v>23</v>
       </c>
@@ -9483,7 +10548,7 @@
       </c>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
-      <c r="M150" s="13"/>
+      <c r="M150" s="20"/>
       <c r="N150" s="4" t="s">
         <v>23</v>
       </c>
@@ -9516,32 +10581,28 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="M20:M25"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="M14:M19"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="M26:M31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="M32:M37"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="M38:M43"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="M44:M49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="M50:M55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="M56:M61"/>
+    <mergeCell ref="B139:B144"/>
+    <mergeCell ref="M139:M144"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="M145:M150"/>
+    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="M121:M126"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="M127:M132"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="M133:M138"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="M103:M108"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="M109:M114"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="M115:M120"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="M85:M90"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="M91:M96"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="M97:M102"/>
     <mergeCell ref="U84:V84"/>
     <mergeCell ref="B62:B67"/>
     <mergeCell ref="M62:M67"/>
@@ -9554,28 +10615,32 @@
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="J84:K84"/>
     <mergeCell ref="M84:N84"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="M85:M90"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="M91:M96"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="M97:M102"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="M103:M108"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="M109:M114"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="M115:M120"/>
-    <mergeCell ref="B139:B144"/>
-    <mergeCell ref="M139:M144"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="M145:M150"/>
-    <mergeCell ref="B121:B126"/>
-    <mergeCell ref="M121:M126"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="M127:M132"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="M133:M138"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="M44:M49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="M50:M55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="M56:M61"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="M38:M43"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="M20:M25"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="O5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resultados/Data Augmentation/Resultados Data Augmentation.xlsx
+++ b/Resultados/Data Augmentation/Resultados Data Augmentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\TFG\Transfer-Learning-EDM\Resultados\Data Augmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F1E81F-3264-43FD-94B6-C366CEE2748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33320880-24C0-4A07-8176-03E10735EDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holdout rgb 16batch" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="355">
   <si>
     <t>SIN MESSIDOR</t>
   </si>
@@ -850,6 +850,258 @@
   </si>
   <si>
     <t>InceptionResNetV2</t>
+  </si>
+  <si>
+    <t>[[29 15] [32 30]]</t>
+  </si>
+  <si>
+    <t>[[15 13] [41 43]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[29 14] [33 29]] </t>
+  </si>
+  <si>
+    <t>[[17 11] [36 48]]</t>
+  </si>
+  <si>
+    <t>[[31 13] [42 20]]</t>
+  </si>
+  <si>
+    <t>[[8 20] [22 62]]</t>
+  </si>
+  <si>
+    <t>[[23 21] [33 29]]</t>
+  </si>
+  <si>
+    <t>[[10 18] [22 62]]</t>
+  </si>
+  <si>
+    <t>[[30 14] [38 24]]</t>
+  </si>
+  <si>
+    <t>[[17 11] [25 59]]</t>
+  </si>
+  <si>
+    <t>[[30 14] [36 26]]</t>
+  </si>
+  <si>
+    <t>[[16 12] [28 56]]</t>
+  </si>
+  <si>
+    <t>[[23 21] [30 32]]</t>
+  </si>
+  <si>
+    <t>[[14 14] [31 49]]</t>
+  </si>
+  <si>
+    <t>[[23 21] [28 34]]</t>
+  </si>
+  <si>
+    <t>[[10 18] [27 57]]</t>
+  </si>
+  <si>
+    <t>[[24 20] [28 34]]</t>
+  </si>
+  <si>
+    <t>[[13 15] [19 65]]</t>
+  </si>
+  <si>
+    <t>[[24 17] [27 35]]</t>
+  </si>
+  <si>
+    <t>[[13 15] [23 61]]</t>
+  </si>
+  <si>
+    <t>[[25 19] [29 33]]</t>
+  </si>
+  <si>
+    <t>[[14 14] [23 61]]</t>
+  </si>
+  <si>
+    <t>[[26 18] [31 31]]</t>
+  </si>
+  <si>
+    <t>[[15 13] [32 52]]</t>
+  </si>
+  <si>
+    <t>[[23 21] [26 26]]</t>
+  </si>
+  <si>
+    <t>[[9 19] [25 65]]</t>
+  </si>
+  <si>
+    <t>[[22 22] [34 34]]</t>
+  </si>
+  <si>
+    <t>[[12 16] [37 47]]</t>
+  </si>
+  <si>
+    <t>[[22 22] [38 24]]</t>
+  </si>
+  <si>
+    <t>[[13 15] [25 59]]</t>
+  </si>
+  <si>
+    <t>[[26 18] [30 32]]</t>
+  </si>
+  <si>
+    <t>[[12 16] [14 70]]</t>
+  </si>
+  <si>
+    <t>[[22 22] [28 34]]</t>
+  </si>
+  <si>
+    <t>[[13 15] [18 66]]</t>
+  </si>
+  <si>
+    <t>[[18 26] [27 35]]</t>
+  </si>
+  <si>
+    <t>[[11 17] [34 50]]</t>
+  </si>
+  <si>
+    <t>[[27 17] [46 16]]</t>
+  </si>
+  <si>
+    <t>[[17 11] [41 43]]</t>
+  </si>
+  <si>
+    <t>[[28 16] [46 16]]</t>
+  </si>
+  <si>
+    <t>[[17 11] [33 51]]</t>
+  </si>
+  <si>
+    <t>[[27 17] [28 34]]</t>
+  </si>
+  <si>
+    <t>[[16 12] [27 57]]</t>
+  </si>
+  <si>
+    <t>[[23 21] [26 36]]</t>
+  </si>
+  <si>
+    <t>[[16 12] [19 65]]</t>
+  </si>
+  <si>
+    <t>[[18 20] [28 27]]</t>
+  </si>
+  <si>
+    <t>[[15 9] [16 59]]</t>
+  </si>
+  <si>
+    <t>[[30 8] [39 16]]</t>
+  </si>
+  <si>
+    <t>[[17 7] [26 49]]</t>
+  </si>
+  <si>
+    <t>[[22 16] [33 22]]</t>
+  </si>
+  <si>
+    <t>[[10 14] [19 56]]</t>
+  </si>
+  <si>
+    <t>[[23 15] [35 20]]</t>
+  </si>
+  <si>
+    <t>[[12 12] [22 53]]</t>
+  </si>
+  <si>
+    <t>[[24 14] [31 24]]</t>
+  </si>
+  <si>
+    <t>[[16 8] [25 50]]</t>
+  </si>
+  <si>
+    <t>[[23 15] [27 28]]</t>
+  </si>
+  <si>
+    <t>[[19 5] [23 52]]</t>
+  </si>
+  <si>
+    <t>[[30 8] [35 20]]</t>
+  </si>
+  <si>
+    <t>[[13 11] [19 56]]</t>
+  </si>
+  <si>
+    <t>[[25 13] [30 25]]</t>
+  </si>
+  <si>
+    <t>[[16 11] [22 49]]</t>
+  </si>
+  <si>
+    <t>[[23 15] [30 25]]</t>
+  </si>
+  <si>
+    <t>[[14 10] [16 59]]</t>
+  </si>
+  <si>
+    <t>[[22 16] [30 25]]</t>
+  </si>
+  <si>
+    <t>[[13 11] [18 57]]</t>
+  </si>
+  <si>
+    <t>[[25 13] [29 26]]</t>
+  </si>
+  <si>
+    <t>[[16 8] [18 57]]</t>
+  </si>
+  <si>
+    <t>[[20 24] [24 38]]</t>
+  </si>
+  <si>
+    <t>[[14 14] [20 64]]</t>
+  </si>
+  <si>
+    <t>[[26 18] [32 30]]</t>
+  </si>
+  <si>
+    <t>[[17 11] [30 54]]</t>
+  </si>
+  <si>
+    <t>[[26 18] [28 34]]</t>
+  </si>
+  <si>
+    <t>[[12 16] [25 59]]</t>
+  </si>
+  <si>
+    <t>[[31 13] [39 23]]</t>
+  </si>
+  <si>
+    <t>[[18 10] [32 52]]</t>
+  </si>
+  <si>
+    <t>[[25 19] [38 24]]</t>
+  </si>
+  <si>
+    <t>[[12 16] [13 71]]</t>
+  </si>
+  <si>
+    <t>[[20 24] [35 27]]</t>
+  </si>
+  <si>
+    <t>[[9 19] [27 57]]</t>
+  </si>
+  <si>
+    <t>[[17 27] [18 44]]</t>
+  </si>
+  <si>
+    <t>[[11 17] [17 65]]</t>
+  </si>
+  <si>
+    <t>[[21 23] [32 30]]</t>
+  </si>
+  <si>
+    <t>[[16 12] [22 62]]</t>
+  </si>
+  <si>
+    <t>[[29 15] [27 35]]</t>
+  </si>
+  <si>
+    <t>[[16 12] [18 66]]</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1057,7 +1309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1070,6 +1321,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1079,21 +1339,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,9 +1357,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D08454D-B46C-4CA7-8F24-CCBFB5D6C7D1}">
   <dimension ref="B2:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70:K81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1418,16 +1669,16 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
@@ -1456,10 +1707,10 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="3">
         <v>0.75529999999999997</v>
       </c>
@@ -1478,14 +1729,14 @@
       <c r="I7" s="3">
         <v>0.83</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1496,10 +1747,10 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1510,10 +1761,10 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1524,10 +1775,10 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1538,10 +1789,10 @@
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1552,10 +1803,10 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1566,10 +1817,10 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1580,10 +1831,10 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1594,10 +1845,10 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1608,10 +1859,10 @@
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1622,10 +1873,10 @@
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1636,10 +1887,10 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1661,16 +1912,16 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="15" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
@@ -1699,10 +1950,10 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="3">
         <v>0.75529999999999997</v>
       </c>
@@ -1721,14 +1972,14 @@
       <c r="I27" s="3">
         <v>0.83</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1739,10 +1990,10 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1753,10 +2004,10 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1767,10 +2018,10 @@
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1781,10 +2032,10 @@
       <c r="K31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1795,10 +2046,10 @@
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1809,10 +2060,10 @@
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -1823,10 +2074,10 @@
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -1837,10 +2088,10 @@
       <c r="K35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1851,10 +2102,10 @@
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1865,10 +2116,10 @@
       <c r="K37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1879,10 +2130,10 @@
       <c r="K38" s="7"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1904,16 +2155,16 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="15" t="s">
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D47" s="2" t="s">
@@ -1942,10 +2193,10 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="3">
         <v>0.75529999999999997</v>
       </c>
@@ -1964,14 +2215,14 @@
       <c r="I48" s="3">
         <v>0.83</v>
       </c>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -1982,10 +2233,10 @@
       <c r="K49" s="7"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -1996,10 +2247,10 @@
       <c r="K50" s="7"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2010,10 +2261,10 @@
       <c r="K51" s="7"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="27"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2024,10 +2275,10 @@
       <c r="K52" s="7"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="27"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -2038,10 +2289,10 @@
       <c r="K53" s="7"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="27"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -2052,10 +2303,10 @@
       <c r="K54" s="7"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="27"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -2066,10 +2317,10 @@
       <c r="K55" s="7"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C56" s="27"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -2080,10 +2331,10 @@
       <c r="K56" s="7"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -2094,10 +2345,10 @@
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="27"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -2108,10 +2359,10 @@
       <c r="K58" s="7"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="27"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -2122,10 +2373,10 @@
       <c r="K59" s="7"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="27"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -2147,16 +2398,16 @@
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="15" t="s">
+      <c r="E67" s="15"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H67" s="16"/>
-      <c r="I67" s="17"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D68" s="2" t="s">
@@ -2185,10 +2436,10 @@
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="18"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="3">
         <v>0.75529999999999997</v>
       </c>
@@ -2207,14 +2458,14 @@
       <c r="I69" s="3">
         <v>0.83</v>
       </c>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="27"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -2225,10 +2476,10 @@
       <c r="K70" s="7"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C71" s="27"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -2239,10 +2490,10 @@
       <c r="K71" s="7"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="27"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -2253,10 +2504,10 @@
       <c r="K72" s="7"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="27"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -2267,10 +2518,10 @@
       <c r="K73" s="7"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="27"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -2281,10 +2532,10 @@
       <c r="K74" s="7"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="27"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -2295,10 +2546,10 @@
       <c r="K75" s="7"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="27"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -2309,10 +2560,10 @@
       <c r="K76" s="7"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C77" s="27"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -2323,10 +2574,10 @@
       <c r="K77" s="7"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="27"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -2337,10 +2588,10 @@
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="27"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -2351,10 +2602,10 @@
       <c r="K79" s="7"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="27"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -2365,10 +2616,10 @@
       <c r="K80" s="7"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="27"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -2380,42 +2631,21 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
@@ -2427,6 +2657,32 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
@@ -2434,16 +2690,11 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="J48:K48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2453,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V150"/>
   <sheetViews>
-    <sheetView topLeftCell="K127" zoomScale="90" workbookViewId="0">
-      <selection activeCell="U153" sqref="U153"/>
+    <sheetView tabSelected="1" topLeftCell="P120" zoomScale="90" workbookViewId="0">
+      <selection activeCell="V151" sqref="V151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2486,26 +2737,26 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="O5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="O5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="15" t="s">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
@@ -2558,10 +2809,10 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="3">
         <v>0.75529999999999997</v>
       </c>
@@ -2580,12 +2831,12 @@
       <c r="I7" s="3">
         <v>0.83</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="M7" s="18" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="M7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="18"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="3">
         <v>0.75529999999999997</v>
       </c>
@@ -2604,8 +2855,8 @@
       <c r="T7" s="3">
         <v>0.83</v>
       </c>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
@@ -2717,7 +2968,7 @@
       <c r="S9" s="6">
         <v>0.81</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="13">
         <v>0.87</v>
       </c>
       <c r="U9" s="7" t="s">
@@ -2930,8 +3181,12 @@
         <f t="shared" si="0"/>
         <v>0.50600000000000001</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="M13" s="26"/>
       <c r="N13" s="4" t="s">
         <v>23</v>
@@ -2960,8 +3215,12 @@
         <f t="shared" si="1"/>
         <v>0.70399999999999996</v>
       </c>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="U13" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
@@ -3286,8 +3545,12 @@
         <f t="shared" si="2"/>
         <v>0.59000000000000008</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="M19" s="26"/>
       <c r="N19" s="4" t="s">
         <v>23</v>
@@ -3316,11 +3579,15 @@
         <f t="shared" si="3"/>
         <v>0.68599999999999994</v>
       </c>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
+      <c r="U19" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -3350,7 +3617,7 @@
       <c r="K20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="23" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="4" t="s">
@@ -3382,7 +3649,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
@@ -3410,7 +3677,7 @@
       <c r="K21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="20"/>
+      <c r="M21" s="23"/>
       <c r="N21" s="4" t="s">
         <v>16</v>
       </c>
@@ -3440,7 +3707,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
@@ -3468,7 +3735,7 @@
       <c r="K22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="20"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="4" t="s">
         <v>18</v>
       </c>
@@ -3498,7 +3765,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
@@ -3526,7 +3793,7 @@
       <c r="K23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="20"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="4" t="s">
         <v>20</v>
       </c>
@@ -3556,7 +3823,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
@@ -3584,7 +3851,7 @@
       <c r="K24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M24" s="20"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="4" t="s">
         <v>21</v>
       </c>
@@ -3614,7 +3881,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
@@ -3642,9 +3909,13 @@
         <f t="shared" si="4"/>
         <v>0.49000000000000005</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="M25" s="20"/>
+      <c r="J25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M25" s="23"/>
       <c r="N25" s="4" t="s">
         <v>23</v>
       </c>
@@ -3672,11 +3943,15 @@
         <f t="shared" si="5"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
+      <c r="U25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -3706,7 +3981,7 @@
       <c r="K26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="23" t="s">
         <v>44</v>
       </c>
       <c r="N26" s="4" t="s">
@@ -3738,7 +4013,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="4" t="s">
         <v>16</v>
       </c>
@@ -3766,7 +4041,7 @@
       <c r="K27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="20"/>
+      <c r="M27" s="23"/>
       <c r="N27" s="4" t="s">
         <v>16</v>
       </c>
@@ -3796,7 +4071,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="20"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
@@ -3824,7 +4099,7 @@
       <c r="K28" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M28" s="20"/>
+      <c r="M28" s="23"/>
       <c r="N28" s="4" t="s">
         <v>18</v>
       </c>
@@ -3854,7 +4129,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="4" t="s">
         <v>20</v>
       </c>
@@ -3882,7 +4157,7 @@
       <c r="K29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="20"/>
+      <c r="M29" s="23"/>
       <c r="N29" s="4" t="s">
         <v>20</v>
       </c>
@@ -3912,7 +4187,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="20"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="4" t="s">
         <v>21</v>
       </c>
@@ -3940,7 +4215,7 @@
       <c r="K30" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M30" s="20"/>
+      <c r="M30" s="23"/>
       <c r="N30" s="4" t="s">
         <v>21</v>
       </c>
@@ -3970,7 +4245,7 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="20"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="4" t="s">
         <v>23</v>
       </c>
@@ -3998,9 +4273,13 @@
         <f t="shared" si="6"/>
         <v>0.53400000000000003</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="M31" s="20"/>
+      <c r="J31" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M31" s="23"/>
       <c r="N31" s="4" t="s">
         <v>23</v>
       </c>
@@ -4028,11 +4307,15 @@
         <f t="shared" si="7"/>
         <v>0.60399999999999998</v>
       </c>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
+      <c r="U31" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -4062,7 +4345,7 @@
       <c r="K32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="20" t="s">
+      <c r="M32" s="23" t="s">
         <v>57</v>
       </c>
       <c r="N32" s="4" t="s">
@@ -4094,7 +4377,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="4" t="s">
         <v>16</v>
       </c>
@@ -4122,7 +4405,7 @@
       <c r="K33" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M33" s="20"/>
+      <c r="M33" s="23"/>
       <c r="N33" s="4" t="s">
         <v>16</v>
       </c>
@@ -4152,7 +4435,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="4" t="s">
         <v>18</v>
       </c>
@@ -4180,7 +4463,7 @@
       <c r="K34" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M34" s="20"/>
+      <c r="M34" s="23"/>
       <c r="N34" s="4" t="s">
         <v>18</v>
       </c>
@@ -4210,7 +4493,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="4" t="s">
         <v>20</v>
       </c>
@@ -4238,7 +4521,7 @@
       <c r="K35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="20"/>
+      <c r="M35" s="23"/>
       <c r="N35" s="4" t="s">
         <v>20</v>
       </c>
@@ -4251,10 +4534,10 @@
       <c r="Q35" s="5">
         <v>0.61</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="13">
         <v>0.85</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S35" s="13">
         <v>0.84</v>
       </c>
       <c r="T35" s="6">
@@ -4268,7 +4551,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="4" t="s">
         <v>21</v>
       </c>
@@ -4296,7 +4579,7 @@
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="20"/>
+      <c r="M36" s="23"/>
       <c r="N36" s="4" t="s">
         <v>21</v>
       </c>
@@ -4326,7 +4609,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="4" t="s">
         <v>23</v>
       </c>
@@ -4354,9 +4637,13 @@
         <f t="shared" si="8"/>
         <v>0.6399999999999999</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="M37" s="20"/>
+      <c r="J37" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M37" s="23"/>
       <c r="N37" s="4" t="s">
         <v>23</v>
       </c>
@@ -4384,11 +4671,15 @@
         <f t="shared" si="9"/>
         <v>0.67399999999999993</v>
       </c>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
+      <c r="U37" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -4418,7 +4709,7 @@
       <c r="K38" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M38" s="20" t="s">
+      <c r="M38" s="23" t="s">
         <v>63</v>
       </c>
       <c r="N38" s="4" t="s">
@@ -4450,7 +4741,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B39" s="20"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="4" t="s">
         <v>16</v>
       </c>
@@ -4478,7 +4769,7 @@
       <c r="K39" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M39" s="20"/>
+      <c r="M39" s="23"/>
       <c r="N39" s="4" t="s">
         <v>16</v>
       </c>
@@ -4508,7 +4799,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B40" s="20"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="4" t="s">
         <v>18</v>
       </c>
@@ -4536,7 +4827,7 @@
       <c r="K40" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M40" s="20"/>
+      <c r="M40" s="23"/>
       <c r="N40" s="4" t="s">
         <v>18</v>
       </c>
@@ -4566,7 +4857,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B41" s="20"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="4" t="s">
         <v>20</v>
       </c>
@@ -4594,7 +4885,7 @@
       <c r="K41" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M41" s="20"/>
+      <c r="M41" s="23"/>
       <c r="N41" s="4" t="s">
         <v>20</v>
       </c>
@@ -4624,7 +4915,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B42" s="20"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="4" t="s">
         <v>21</v>
       </c>
@@ -4652,7 +4943,7 @@
       <c r="K42" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M42" s="20"/>
+      <c r="M42" s="23"/>
       <c r="N42" s="4" t="s">
         <v>21</v>
       </c>
@@ -4682,7 +4973,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B43" s="20"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="4" t="s">
         <v>23</v>
       </c>
@@ -4710,9 +5001,13 @@
         <f t="shared" si="10"/>
         <v>0.60599999999999998</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="M43" s="20"/>
+      <c r="J43" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M43" s="23"/>
       <c r="N43" s="4" t="s">
         <v>23</v>
       </c>
@@ -4740,11 +5035,15 @@
         <f t="shared" si="11"/>
         <v>0.73799999999999999</v>
       </c>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
+      <c r="U43" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4774,7 +5073,7 @@
       <c r="K44" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M44" s="20" t="s">
+      <c r="M44" s="23" t="s">
         <v>66</v>
       </c>
       <c r="N44" s="4" t="s">
@@ -4806,7 +5105,7 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B45" s="20"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="4" t="s">
         <v>16</v>
       </c>
@@ -4834,20 +5133,20 @@
       <c r="K45" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M45" s="20"/>
+      <c r="M45" s="23"/>
       <c r="N45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O45" s="10">
         <v>0.53</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P45" s="10">
         <v>0.45</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q45" s="10">
         <v>0.59</v>
       </c>
-      <c r="R45" s="12">
+      <c r="R45" s="11">
         <v>0.55000000000000004</v>
       </c>
       <c r="S45" s="6">
@@ -4864,7 +5163,7 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B46" s="20"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="4" t="s">
         <v>18</v>
       </c>
@@ -4892,7 +5191,7 @@
       <c r="K46" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M46" s="20"/>
+      <c r="M46" s="23"/>
       <c r="N46" s="4" t="s">
         <v>18</v>
       </c>
@@ -4922,7 +5221,7 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B47" s="20"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="4" t="s">
         <v>20</v>
       </c>
@@ -4950,7 +5249,7 @@
       <c r="K47" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M47" s="20"/>
+      <c r="M47" s="23"/>
       <c r="N47" s="4" t="s">
         <v>20</v>
       </c>
@@ -4980,7 +5279,7 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B48" s="20"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="4" t="s">
         <v>21</v>
       </c>
@@ -5008,7 +5307,7 @@
       <c r="K48" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M48" s="20"/>
+      <c r="M48" s="23"/>
       <c r="N48" s="4" t="s">
         <v>21</v>
       </c>
@@ -5021,13 +5320,13 @@
       <c r="Q48" s="5">
         <v>0.6</v>
       </c>
-      <c r="R48" s="14">
+      <c r="R48" s="13">
         <v>0.84</v>
       </c>
-      <c r="S48" s="14">
+      <c r="S48" s="13">
         <v>0.85</v>
       </c>
-      <c r="T48" s="14">
+      <c r="T48" s="13">
         <v>0.9</v>
       </c>
       <c r="U48" s="7" t="s">
@@ -5038,7 +5337,7 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B49" s="20"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="4" t="s">
         <v>23</v>
       </c>
@@ -5066,9 +5365,13 @@
         <f t="shared" si="12"/>
         <v>0.53400000000000003</v>
       </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="M49" s="20"/>
+      <c r="J49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M49" s="23"/>
       <c r="N49" s="4" t="s">
         <v>23</v>
       </c>
@@ -5096,11 +5399,15 @@
         <f t="shared" si="13"/>
         <v>0.65400000000000003</v>
       </c>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
+      <c r="U49" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V49" s="7" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="23" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -5130,7 +5437,7 @@
       <c r="K50" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M50" s="20" t="s">
+      <c r="M50" s="23" t="s">
         <v>69</v>
       </c>
       <c r="N50" s="4" t="s">
@@ -5162,7 +5469,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B51" s="20"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="4" t="s">
         <v>16</v>
       </c>
@@ -5190,7 +5497,7 @@
       <c r="K51" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M51" s="20"/>
+      <c r="M51" s="23"/>
       <c r="N51" s="4" t="s">
         <v>16</v>
       </c>
@@ -5220,7 +5527,7 @@
       </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B52" s="20"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="4" t="s">
         <v>18</v>
       </c>
@@ -5248,7 +5555,7 @@
       <c r="K52" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M52" s="20"/>
+      <c r="M52" s="23"/>
       <c r="N52" s="4" t="s">
         <v>18</v>
       </c>
@@ -5278,7 +5585,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B53" s="20"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="4" t="s">
         <v>20</v>
       </c>
@@ -5306,7 +5613,7 @@
       <c r="K53" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M53" s="20"/>
+      <c r="M53" s="23"/>
       <c r="N53" s="4" t="s">
         <v>20</v>
       </c>
@@ -5336,7 +5643,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B54" s="20"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="4" t="s">
         <v>21</v>
       </c>
@@ -5364,7 +5671,7 @@
       <c r="K54" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M54" s="20"/>
+      <c r="M54" s="23"/>
       <c r="N54" s="4" t="s">
         <v>21</v>
       </c>
@@ -5394,7 +5701,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B55" s="20"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="4" t="s">
         <v>23</v>
       </c>
@@ -5422,9 +5729,13 @@
         <f t="shared" si="14"/>
         <v>0.51999999999999991</v>
       </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="M55" s="20"/>
+      <c r="J55" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M55" s="23"/>
       <c r="N55" s="4" t="s">
         <v>23</v>
       </c>
@@ -5452,11 +5763,15 @@
         <f t="shared" si="15"/>
         <v>0.63800000000000012</v>
       </c>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
+      <c r="U55" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="V55" s="7" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -5486,7 +5801,7 @@
       <c r="K56" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M56" s="20" t="s">
+      <c r="M56" s="23" t="s">
         <v>72</v>
       </c>
       <c r="N56" s="4" t="s">
@@ -5518,7 +5833,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B57" s="20"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="4" t="s">
         <v>16</v>
       </c>
@@ -5546,7 +5861,7 @@
       <c r="K57" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M57" s="20"/>
+      <c r="M57" s="23"/>
       <c r="N57" s="4" t="s">
         <v>16</v>
       </c>
@@ -5559,13 +5874,13 @@
       <c r="Q57" s="5">
         <v>0.48</v>
       </c>
-      <c r="R57" s="14">
+      <c r="R57" s="13">
         <v>0.9</v>
       </c>
-      <c r="S57" s="14">
+      <c r="S57" s="13">
         <v>0.9</v>
       </c>
-      <c r="T57" s="14">
+      <c r="T57" s="13">
         <v>0.87</v>
       </c>
       <c r="U57" s="7" t="s">
@@ -5576,7 +5891,7 @@
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B58" s="20"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="4" t="s">
         <v>18</v>
       </c>
@@ -5604,7 +5919,7 @@
       <c r="K58" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M58" s="20"/>
+      <c r="M58" s="23"/>
       <c r="N58" s="4" t="s">
         <v>18</v>
       </c>
@@ -5634,7 +5949,7 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B59" s="20"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="4" t="s">
         <v>20</v>
       </c>
@@ -5662,7 +5977,7 @@
       <c r="K59" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M59" s="20"/>
+      <c r="M59" s="23"/>
       <c r="N59" s="4" t="s">
         <v>20</v>
       </c>
@@ -5692,7 +6007,7 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B60" s="20"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="4" t="s">
         <v>21</v>
       </c>
@@ -5720,7 +6035,7 @@
       <c r="K60" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M60" s="20"/>
+      <c r="M60" s="23"/>
       <c r="N60" s="4" t="s">
         <v>21</v>
       </c>
@@ -5750,7 +6065,7 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B61" s="20"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="4" t="s">
         <v>23</v>
       </c>
@@ -5778,9 +6093,13 @@
         <f t="shared" si="16"/>
         <v>0.61</v>
       </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="M61" s="20"/>
+      <c r="J61" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M61" s="23"/>
       <c r="N61" s="4" t="s">
         <v>23</v>
       </c>
@@ -5808,11 +6127,15 @@
         <f t="shared" si="17"/>
         <v>0.69599999999999995</v>
       </c>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
+      <c r="U61" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="V61" s="7" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -5842,7 +6165,7 @@
       <c r="K62" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M62" s="20" t="s">
+      <c r="M62" s="23" t="s">
         <v>74</v>
       </c>
       <c r="N62" s="4" t="s">
@@ -5874,7 +6197,7 @@
       </c>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B63" s="20"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="4" t="s">
         <v>16</v>
       </c>
@@ -5902,7 +6225,7 @@
       <c r="K63" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M63" s="20"/>
+      <c r="M63" s="23"/>
       <c r="N63" s="4" t="s">
         <v>16</v>
       </c>
@@ -5915,13 +6238,13 @@
       <c r="Q63" s="5">
         <v>0.49</v>
       </c>
-      <c r="R63" s="14">
+      <c r="R63" s="13">
         <v>0.85</v>
       </c>
-      <c r="S63" s="14">
+      <c r="S63" s="13">
         <v>0.85</v>
       </c>
-      <c r="T63" s="14">
+      <c r="T63" s="13">
         <v>0.83</v>
       </c>
       <c r="U63" s="7" t="s">
@@ -5932,7 +6255,7 @@
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B64" s="20"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="4" t="s">
         <v>18</v>
       </c>
@@ -5945,7 +6268,7 @@
       <c r="F64" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="12">
         <v>0.69</v>
       </c>
       <c r="H64" s="6">
@@ -5960,7 +6283,7 @@
       <c r="K64" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M64" s="20"/>
+      <c r="M64" s="23"/>
       <c r="N64" s="4" t="s">
         <v>18</v>
       </c>
@@ -5990,7 +6313,7 @@
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B65" s="20"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="4" t="s">
         <v>20</v>
       </c>
@@ -6018,7 +6341,7 @@
       <c r="K65" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M65" s="20"/>
+      <c r="M65" s="23"/>
       <c r="N65" s="4" t="s">
         <v>20</v>
       </c>
@@ -6048,7 +6371,7 @@
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B66" s="20"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="4" t="s">
         <v>21</v>
       </c>
@@ -6076,7 +6399,7 @@
       <c r="K66" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M66" s="20"/>
+      <c r="M66" s="23"/>
       <c r="N66" s="4" t="s">
         <v>21</v>
       </c>
@@ -6106,7 +6429,7 @@
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B67" s="20"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="4" t="s">
         <v>23</v>
       </c>
@@ -6134,9 +6457,13 @@
         <f t="shared" si="18"/>
         <v>0.59399999999999997</v>
       </c>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="M67" s="20"/>
+      <c r="J67" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M67" s="23"/>
       <c r="N67" s="4" t="s">
         <v>23</v>
       </c>
@@ -6164,11 +6491,15 @@
         <f t="shared" si="19"/>
         <v>0.64399999999999991</v>
       </c>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
+      <c r="U67" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="V67" s="7" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -6198,7 +6529,7 @@
       <c r="K68" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M68" s="20" t="s">
+      <c r="M68" s="23" t="s">
         <v>79</v>
       </c>
       <c r="N68" s="4" t="s">
@@ -6230,7 +6561,7 @@
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B69" s="20"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="4" t="s">
         <v>16</v>
       </c>
@@ -6258,7 +6589,7 @@
       <c r="K69" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M69" s="20"/>
+      <c r="M69" s="23"/>
       <c r="N69" s="4" t="s">
         <v>16</v>
       </c>
@@ -6288,7 +6619,7 @@
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B70" s="20"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="4" t="s">
         <v>18</v>
       </c>
@@ -6316,7 +6647,7 @@
       <c r="K70" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="20"/>
+      <c r="M70" s="23"/>
       <c r="N70" s="4" t="s">
         <v>18</v>
       </c>
@@ -6346,7 +6677,7 @@
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B71" s="20"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="4" t="s">
         <v>20</v>
       </c>
@@ -6374,7 +6705,7 @@
       <c r="K71" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M71" s="20"/>
+      <c r="M71" s="23"/>
       <c r="N71" s="4" t="s">
         <v>20</v>
       </c>
@@ -6404,7 +6735,7 @@
       </c>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B72" s="20"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="4" t="s">
         <v>21</v>
       </c>
@@ -6432,7 +6763,7 @@
       <c r="K72" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M72" s="20"/>
+      <c r="M72" s="23"/>
       <c r="N72" s="4" t="s">
         <v>21</v>
       </c>
@@ -6462,7 +6793,7 @@
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B73" s="20"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="4" t="s">
         <v>23</v>
       </c>
@@ -6490,9 +6821,13 @@
         <f t="shared" si="20"/>
         <v>0.61</v>
       </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="M73" s="20"/>
+      <c r="J73" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M73" s="23"/>
       <c r="N73" s="4" t="s">
         <v>23</v>
       </c>
@@ -6520,8 +6855,12 @@
         <f t="shared" si="21"/>
         <v>0.71000000000000008</v>
       </c>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
+      <c r="U73" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="V73" s="7" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="79" spans="2:22" ht="21" x14ac:dyDescent="0.4">
       <c r="B79" s="1" t="s">
@@ -6542,26 +6881,26 @@
       </c>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="15" t="s">
+      <c r="E82" s="15"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="17"/>
-      <c r="O82" s="21" t="s">
+      <c r="H82" s="18"/>
+      <c r="I82" s="19"/>
+      <c r="O82" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="15" t="s">
+      <c r="P82" s="15"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="S82" s="16"/>
-      <c r="T82" s="17"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="19"/>
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D83" s="2" t="s">
@@ -6614,10 +6953,10 @@
       </c>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="18"/>
+      <c r="C84" s="22"/>
       <c r="D84" s="3">
         <v>0.75529999999999997</v>
       </c>
@@ -6636,12 +6975,12 @@
       <c r="I84" s="3">
         <v>0.83</v>
       </c>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="M84" s="18" t="s">
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="M84" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N84" s="18"/>
+      <c r="N84" s="22"/>
       <c r="O84" s="3">
         <v>0.75529999999999997</v>
       </c>
@@ -6660,8 +6999,8 @@
       <c r="T84" s="3">
         <v>0.83</v>
       </c>
-      <c r="U84" s="19"/>
-      <c r="V84" s="19"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B85" s="24" t="s">
@@ -6986,8 +7325,12 @@
         <f t="shared" si="22"/>
         <v>0.54600000000000004</v>
       </c>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
+      <c r="J90" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="M90" s="26"/>
       <c r="N90" s="4" t="s">
         <v>23</v>
@@ -7016,8 +7359,12 @@
         <f t="shared" si="23"/>
         <v>0.624</v>
       </c>
-      <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
+      <c r="U90" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V90" s="7" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B91" s="24" t="s">
@@ -7342,8 +7689,12 @@
         <f t="shared" si="24"/>
         <v>0.53600000000000003</v>
       </c>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
+      <c r="J96" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="M96" s="26"/>
       <c r="N96" s="4" t="s">
         <v>23</v>
@@ -7372,11 +7723,15 @@
         <f t="shared" si="25"/>
         <v>0.61</v>
       </c>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
+      <c r="U96" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="V96" s="7" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="97" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -7406,7 +7761,7 @@
       <c r="K97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M97" s="20" t="s">
+      <c r="M97" s="23" t="s">
         <v>34</v>
       </c>
       <c r="N97" s="4" t="s">
@@ -7438,7 +7793,7 @@
       </c>
     </row>
     <row r="98" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B98" s="20"/>
+      <c r="B98" s="23"/>
       <c r="C98" s="4" t="s">
         <v>16</v>
       </c>
@@ -7466,7 +7821,7 @@
       <c r="K98" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M98" s="20"/>
+      <c r="M98" s="23"/>
       <c r="N98" s="4" t="s">
         <v>16</v>
       </c>
@@ -7496,7 +7851,7 @@
       </c>
     </row>
     <row r="99" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B99" s="20"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="4" t="s">
         <v>18</v>
       </c>
@@ -7524,7 +7879,7 @@
       <c r="K99" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M99" s="20"/>
+      <c r="M99" s="23"/>
       <c r="N99" s="4" t="s">
         <v>18</v>
       </c>
@@ -7554,7 +7909,7 @@
       </c>
     </row>
     <row r="100" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B100" s="20"/>
+      <c r="B100" s="23"/>
       <c r="C100" s="4" t="s">
         <v>20</v>
       </c>
@@ -7582,7 +7937,7 @@
       <c r="K100" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M100" s="20"/>
+      <c r="M100" s="23"/>
       <c r="N100" s="4" t="s">
         <v>20</v>
       </c>
@@ -7612,7 +7967,7 @@
       </c>
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B101" s="20"/>
+      <c r="B101" s="23"/>
       <c r="C101" s="4" t="s">
         <v>21</v>
       </c>
@@ -7640,7 +7995,7 @@
       <c r="K101" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M101" s="20"/>
+      <c r="M101" s="23"/>
       <c r="N101" s="4" t="s">
         <v>21</v>
       </c>
@@ -7670,7 +8025,7 @@
       </c>
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B102" s="20"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="4" t="s">
         <v>23</v>
       </c>
@@ -7698,9 +8053,13 @@
         <f t="shared" si="26"/>
         <v>0.48</v>
       </c>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="M102" s="20"/>
+      <c r="J102" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M102" s="23"/>
       <c r="N102" s="4" t="s">
         <v>23</v>
       </c>
@@ -7728,11 +8087,15 @@
         <f t="shared" si="27"/>
         <v>0.55800000000000005</v>
       </c>
-      <c r="U102" s="10"/>
-      <c r="V102" s="10"/>
+      <c r="U102" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="V102" s="7" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -7762,7 +8125,7 @@
       <c r="K103" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M103" s="20" t="s">
+      <c r="M103" s="23" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="4" t="s">
@@ -7794,7 +8157,7 @@
       </c>
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B104" s="20"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="4" t="s">
         <v>16</v>
       </c>
@@ -7822,7 +8185,7 @@
       <c r="K104" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M104" s="20"/>
+      <c r="M104" s="23"/>
       <c r="N104" s="4" t="s">
         <v>16</v>
       </c>
@@ -7852,7 +8215,7 @@
       </c>
     </row>
     <row r="105" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B105" s="20"/>
+      <c r="B105" s="23"/>
       <c r="C105" s="4" t="s">
         <v>18</v>
       </c>
@@ -7880,7 +8243,7 @@
       <c r="K105" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M105" s="20"/>
+      <c r="M105" s="23"/>
       <c r="N105" s="4" t="s">
         <v>18</v>
       </c>
@@ -7910,7 +8273,7 @@
       </c>
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B106" s="20"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="4" t="s">
         <v>20</v>
       </c>
@@ -7938,7 +8301,7 @@
       <c r="K106" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M106" s="20"/>
+      <c r="M106" s="23"/>
       <c r="N106" s="4" t="s">
         <v>20</v>
       </c>
@@ -7968,7 +8331,7 @@
       </c>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B107" s="20"/>
+      <c r="B107" s="23"/>
       <c r="C107" s="4" t="s">
         <v>21</v>
       </c>
@@ -7996,7 +8359,7 @@
       <c r="K107" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="M107" s="20"/>
+      <c r="M107" s="23"/>
       <c r="N107" s="4" t="s">
         <v>21</v>
       </c>
@@ -8026,7 +8389,7 @@
       </c>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B108" s="20"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="4" t="s">
         <v>23</v>
       </c>
@@ -8054,9 +8417,13 @@
         <f t="shared" si="28"/>
         <v>0.57199999999999995</v>
       </c>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="M108" s="20"/>
+      <c r="J108" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M108" s="23"/>
       <c r="N108" s="4" t="s">
         <v>23</v>
       </c>
@@ -8084,11 +8451,15 @@
         <f t="shared" si="29"/>
         <v>0.626</v>
       </c>
-      <c r="U108" s="10"/>
-      <c r="V108" s="10"/>
+      <c r="U108" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="V108" s="7" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -8118,7 +8489,7 @@
       <c r="K109" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M109" s="20" t="s">
+      <c r="M109" s="23" t="s">
         <v>57</v>
       </c>
       <c r="N109" s="4" t="s">
@@ -8150,7 +8521,7 @@
       </c>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B110" s="20"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="4" t="s">
         <v>16</v>
       </c>
@@ -8178,7 +8549,7 @@
       <c r="K110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M110" s="20"/>
+      <c r="M110" s="23"/>
       <c r="N110" s="4" t="s">
         <v>16</v>
       </c>
@@ -8208,7 +8579,7 @@
       </c>
     </row>
     <row r="111" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B111" s="20"/>
+      <c r="B111" s="23"/>
       <c r="C111" s="4" t="s">
         <v>18</v>
       </c>
@@ -8236,7 +8607,7 @@
       <c r="K111" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M111" s="20"/>
+      <c r="M111" s="23"/>
       <c r="N111" s="4" t="s">
         <v>18</v>
       </c>
@@ -8266,7 +8637,7 @@
       </c>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B112" s="20"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="4" t="s">
         <v>20</v>
       </c>
@@ -8294,7 +8665,7 @@
       <c r="K112" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M112" s="20"/>
+      <c r="M112" s="23"/>
       <c r="N112" s="4" t="s">
         <v>20</v>
       </c>
@@ -8324,7 +8695,7 @@
       </c>
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B113" s="20"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="4" t="s">
         <v>21</v>
       </c>
@@ -8352,7 +8723,7 @@
       <c r="K113" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M113" s="20"/>
+      <c r="M113" s="23"/>
       <c r="N113" s="4" t="s">
         <v>21</v>
       </c>
@@ -8382,7 +8753,7 @@
       </c>
     </row>
     <row r="114" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B114" s="20"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="4" t="s">
         <v>23</v>
       </c>
@@ -8410,9 +8781,13 @@
         <f t="shared" si="30"/>
         <v>0.63</v>
       </c>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="M114" s="20"/>
+      <c r="J114" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M114" s="23"/>
       <c r="N114" s="4" t="s">
         <v>23</v>
       </c>
@@ -8440,11 +8815,15 @@
         <f t="shared" si="31"/>
         <v>0.60799999999999998</v>
       </c>
-      <c r="U114" s="7"/>
-      <c r="V114" s="7"/>
+      <c r="U114" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="V114" s="7" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="115" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -8474,7 +8853,7 @@
       <c r="K115" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M115" s="20" t="s">
+      <c r="M115" s="23" t="s">
         <v>63</v>
       </c>
       <c r="N115" s="4" t="s">
@@ -8506,7 +8885,7 @@
       </c>
     </row>
     <row r="116" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B116" s="20"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="4" t="s">
         <v>16</v>
       </c>
@@ -8534,7 +8913,7 @@
       <c r="K116" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M116" s="20"/>
+      <c r="M116" s="23"/>
       <c r="N116" s="4" t="s">
         <v>16</v>
       </c>
@@ -8564,7 +8943,7 @@
       </c>
     </row>
     <row r="117" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B117" s="20"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="4" t="s">
         <v>18</v>
       </c>
@@ -8592,7 +8971,7 @@
       <c r="K117" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="M117" s="20"/>
+      <c r="M117" s="23"/>
       <c r="N117" s="4" t="s">
         <v>18</v>
       </c>
@@ -8622,7 +9001,7 @@
       </c>
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B118" s="20"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="4" t="s">
         <v>20</v>
       </c>
@@ -8650,7 +9029,7 @@
       <c r="K118" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M118" s="20"/>
+      <c r="M118" s="23"/>
       <c r="N118" s="4" t="s">
         <v>20</v>
       </c>
@@ -8680,7 +9059,7 @@
       </c>
     </row>
     <row r="119" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B119" s="20"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="4" t="s">
         <v>21</v>
       </c>
@@ -8708,7 +9087,7 @@
       <c r="K119" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M119" s="20"/>
+      <c r="M119" s="23"/>
       <c r="N119" s="4" t="s">
         <v>21</v>
       </c>
@@ -8738,7 +9117,7 @@
       </c>
     </row>
     <row r="120" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B120" s="20"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="4" t="s">
         <v>23</v>
       </c>
@@ -8766,9 +9145,13 @@
         <f t="shared" si="32"/>
         <v>0.60799999999999987</v>
       </c>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="M120" s="20"/>
+      <c r="J120" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M120" s="23"/>
       <c r="N120" s="4" t="s">
         <v>23</v>
       </c>
@@ -8796,11 +9179,15 @@
         <f t="shared" si="33"/>
         <v>0.63</v>
       </c>
-      <c r="U120" s="7"/>
-      <c r="V120" s="7"/>
+      <c r="U120" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="V120" s="7" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="121" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -8830,7 +9217,7 @@
       <c r="K121" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M121" s="20" t="s">
+      <c r="M121" s="23" t="s">
         <v>66</v>
       </c>
       <c r="N121" s="4" t="s">
@@ -8862,20 +9249,20 @@
       </c>
     </row>
     <row r="122" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B122" s="20"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D122" s="10">
         <v>0.38</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E122" s="10">
         <v>0.38</v>
       </c>
-      <c r="F122" s="11">
+      <c r="F122" s="10">
         <v>0.37</v>
       </c>
-      <c r="G122" s="12">
+      <c r="G122" s="11">
         <v>0.48</v>
       </c>
       <c r="H122" s="6">
@@ -8890,20 +9277,20 @@
       <c r="K122" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M122" s="20"/>
+      <c r="M122" s="23"/>
       <c r="N122" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O122" s="11">
+      <c r="O122" s="10">
         <v>0.38</v>
       </c>
-      <c r="P122" s="11">
+      <c r="P122" s="10">
         <v>0.37</v>
       </c>
-      <c r="Q122" s="11">
+      <c r="Q122" s="10">
         <v>0.4</v>
       </c>
-      <c r="R122" s="12">
+      <c r="R122" s="11">
         <v>0.65</v>
       </c>
       <c r="S122" s="6">
@@ -8920,7 +9307,7 @@
       </c>
     </row>
     <row r="123" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B123" s="20"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="4" t="s">
         <v>18</v>
       </c>
@@ -8948,7 +9335,7 @@
       <c r="K123" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M123" s="20"/>
+      <c r="M123" s="23"/>
       <c r="N123" s="4" t="s">
         <v>18</v>
       </c>
@@ -8978,7 +9365,7 @@
       </c>
     </row>
     <row r="124" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B124" s="20"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="4" t="s">
         <v>20</v>
       </c>
@@ -9006,7 +9393,7 @@
       <c r="K124" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M124" s="20"/>
+      <c r="M124" s="23"/>
       <c r="N124" s="4" t="s">
         <v>20</v>
       </c>
@@ -9036,7 +9423,7 @@
       </c>
     </row>
     <row r="125" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B125" s="20"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="4" t="s">
         <v>21</v>
       </c>
@@ -9064,7 +9451,7 @@
       <c r="K125" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="M125" s="20"/>
+      <c r="M125" s="23"/>
       <c r="N125" s="4" t="s">
         <v>21</v>
       </c>
@@ -9094,7 +9481,7 @@
       </c>
     </row>
     <row r="126" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B126" s="20"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="4" t="s">
         <v>23</v>
       </c>
@@ -9122,9 +9509,13 @@
         <f t="shared" si="34"/>
         <v>0.502</v>
       </c>
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
-      <c r="M126" s="20"/>
+      <c r="J126" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M126" s="23"/>
       <c r="N126" s="4" t="s">
         <v>23</v>
       </c>
@@ -9152,11 +9543,15 @@
         <f t="shared" si="35"/>
         <v>0.49399999999999994</v>
       </c>
-      <c r="U126" s="7"/>
-      <c r="V126" s="7"/>
+      <c r="U126" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="V126" s="7" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="127" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="23" t="s">
         <v>69</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -9186,7 +9581,7 @@
       <c r="K127" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M127" s="20" t="s">
+      <c r="M127" s="23" t="s">
         <v>69</v>
       </c>
       <c r="N127" s="4" t="s">
@@ -9218,7 +9613,7 @@
       </c>
     </row>
     <row r="128" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B128" s="20"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="4" t="s">
         <v>16</v>
       </c>
@@ -9246,7 +9641,7 @@
       <c r="K128" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M128" s="20"/>
+      <c r="M128" s="23"/>
       <c r="N128" s="4" t="s">
         <v>16</v>
       </c>
@@ -9276,7 +9671,7 @@
       </c>
     </row>
     <row r="129" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B129" s="20"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="4" t="s">
         <v>18</v>
       </c>
@@ -9304,7 +9699,7 @@
       <c r="K129" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M129" s="20"/>
+      <c r="M129" s="23"/>
       <c r="N129" s="4" t="s">
         <v>18</v>
       </c>
@@ -9334,7 +9729,7 @@
       </c>
     </row>
     <row r="130" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B130" s="20"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="4" t="s">
         <v>20</v>
       </c>
@@ -9362,7 +9757,7 @@
       <c r="K130" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M130" s="20"/>
+      <c r="M130" s="23"/>
       <c r="N130" s="4" t="s">
         <v>20</v>
       </c>
@@ -9392,7 +9787,7 @@
       </c>
     </row>
     <row r="131" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B131" s="20"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="4" t="s">
         <v>21</v>
       </c>
@@ -9420,7 +9815,7 @@
       <c r="K131" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M131" s="20"/>
+      <c r="M131" s="23"/>
       <c r="N131" s="4" t="s">
         <v>21</v>
       </c>
@@ -9450,7 +9845,7 @@
       </c>
     </row>
     <row r="132" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B132" s="20"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="4" t="s">
         <v>23</v>
       </c>
@@ -9478,9 +9873,13 @@
         <f t="shared" si="36"/>
         <v>0.53800000000000003</v>
       </c>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
-      <c r="M132" s="20"/>
+      <c r="J132" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M132" s="23"/>
       <c r="N132" s="4" t="s">
         <v>23</v>
       </c>
@@ -9508,11 +9907,15 @@
         <f t="shared" si="37"/>
         <v>0.59199999999999997</v>
       </c>
-      <c r="U132" s="7"/>
-      <c r="V132" s="7"/>
+      <c r="U132" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="V132" s="7" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="133" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -9542,7 +9945,7 @@
       <c r="K133" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M133" s="20" t="s">
+      <c r="M133" s="23" t="s">
         <v>72</v>
       </c>
       <c r="N133" s="4" t="s">
@@ -9574,7 +9977,7 @@
       </c>
     </row>
     <row r="134" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B134" s="20"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="4" t="s">
         <v>16</v>
       </c>
@@ -9602,7 +10005,7 @@
       <c r="K134" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M134" s="20"/>
+      <c r="M134" s="23"/>
       <c r="N134" s="4" t="s">
         <v>16</v>
       </c>
@@ -9632,7 +10035,7 @@
       </c>
     </row>
     <row r="135" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B135" s="20"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="4" t="s">
         <v>18</v>
       </c>
@@ -9660,7 +10063,7 @@
       <c r="K135" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M135" s="20"/>
+      <c r="M135" s="23"/>
       <c r="N135" s="4" t="s">
         <v>18</v>
       </c>
@@ -9690,7 +10093,7 @@
       </c>
     </row>
     <row r="136" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B136" s="20"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="4" t="s">
         <v>20</v>
       </c>
@@ -9718,7 +10121,7 @@
       <c r="K136" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M136" s="20"/>
+      <c r="M136" s="23"/>
       <c r="N136" s="4" t="s">
         <v>20</v>
       </c>
@@ -9748,7 +10151,7 @@
       </c>
     </row>
     <row r="137" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B137" s="20"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="4" t="s">
         <v>21</v>
       </c>
@@ -9776,7 +10179,7 @@
       <c r="K137" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M137" s="20"/>
+      <c r="M137" s="23"/>
       <c r="N137" s="4" t="s">
         <v>21</v>
       </c>
@@ -9806,7 +10209,7 @@
       </c>
     </row>
     <row r="138" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B138" s="20"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="4" t="s">
         <v>23</v>
       </c>
@@ -9834,9 +10237,13 @@
         <f t="shared" si="38"/>
         <v>0.58399999999999996</v>
       </c>
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
-      <c r="M138" s="20"/>
+      <c r="J138" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M138" s="23"/>
       <c r="N138" s="4" t="s">
         <v>23</v>
       </c>
@@ -9864,11 +10271,15 @@
         <f t="shared" si="39"/>
         <v>0.60199999999999998</v>
       </c>
-      <c r="U138" s="7"/>
-      <c r="V138" s="7"/>
+      <c r="U138" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="V138" s="7" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="139" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B139" s="20" t="s">
+      <c r="B139" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -9898,7 +10309,7 @@
       <c r="K139" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M139" s="20" t="s">
+      <c r="M139" s="23" t="s">
         <v>74</v>
       </c>
       <c r="N139" s="4" t="s">
@@ -9930,7 +10341,7 @@
       </c>
     </row>
     <row r="140" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B140" s="20"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="4" t="s">
         <v>16</v>
       </c>
@@ -9958,7 +10369,7 @@
       <c r="K140" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M140" s="20"/>
+      <c r="M140" s="23"/>
       <c r="N140" s="4" t="s">
         <v>16</v>
       </c>
@@ -9988,7 +10399,7 @@
       </c>
     </row>
     <row r="141" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B141" s="20"/>
+      <c r="B141" s="23"/>
       <c r="C141" s="4" t="s">
         <v>18</v>
       </c>
@@ -10016,7 +10427,7 @@
       <c r="K141" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M141" s="20"/>
+      <c r="M141" s="23"/>
       <c r="N141" s="4" t="s">
         <v>18</v>
       </c>
@@ -10046,7 +10457,7 @@
       </c>
     </row>
     <row r="142" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B142" s="20"/>
+      <c r="B142" s="23"/>
       <c r="C142" s="4" t="s">
         <v>20</v>
       </c>
@@ -10074,7 +10485,7 @@
       <c r="K142" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M142" s="20"/>
+      <c r="M142" s="23"/>
       <c r="N142" s="4" t="s">
         <v>20</v>
       </c>
@@ -10104,7 +10515,7 @@
       </c>
     </row>
     <row r="143" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B143" s="20"/>
+      <c r="B143" s="23"/>
       <c r="C143" s="4" t="s">
         <v>21</v>
       </c>
@@ -10132,7 +10543,7 @@
       <c r="K143" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M143" s="20"/>
+      <c r="M143" s="23"/>
       <c r="N143" s="4" t="s">
         <v>21</v>
       </c>
@@ -10162,7 +10573,7 @@
       </c>
     </row>
     <row r="144" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B144" s="20"/>
+      <c r="B144" s="23"/>
       <c r="C144" s="4" t="s">
         <v>23</v>
       </c>
@@ -10190,9 +10601,13 @@
         <f t="shared" si="40"/>
         <v>0.60799999999999998</v>
       </c>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="M144" s="20"/>
+      <c r="J144" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M144" s="23"/>
       <c r="N144" s="4" t="s">
         <v>23</v>
       </c>
@@ -10220,11 +10635,15 @@
         <f t="shared" si="41"/>
         <v>0.64399999999999991</v>
       </c>
-      <c r="U144" s="7"/>
-      <c r="V144" s="7"/>
+      <c r="U144" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V144" s="7" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="145" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B145" s="20" t="s">
+      <c r="B145" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -10254,7 +10673,7 @@
       <c r="K145" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M145" s="20" t="s">
+      <c r="M145" s="23" t="s">
         <v>79</v>
       </c>
       <c r="N145" s="4" t="s">
@@ -10286,7 +10705,7 @@
       </c>
     </row>
     <row r="146" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B146" s="20"/>
+      <c r="B146" s="23"/>
       <c r="C146" s="4" t="s">
         <v>16</v>
       </c>
@@ -10314,7 +10733,7 @@
       <c r="K146" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M146" s="20"/>
+      <c r="M146" s="23"/>
       <c r="N146" s="4" t="s">
         <v>16</v>
       </c>
@@ -10344,7 +10763,7 @@
       </c>
     </row>
     <row r="147" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B147" s="20"/>
+      <c r="B147" s="23"/>
       <c r="C147" s="4" t="s">
         <v>18</v>
       </c>
@@ -10372,7 +10791,7 @@
       <c r="K147" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M147" s="20"/>
+      <c r="M147" s="23"/>
       <c r="N147" s="4" t="s">
         <v>18</v>
       </c>
@@ -10402,7 +10821,7 @@
       </c>
     </row>
     <row r="148" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B148" s="20"/>
+      <c r="B148" s="23"/>
       <c r="C148" s="4" t="s">
         <v>20</v>
       </c>
@@ -10415,10 +10834,10 @@
       <c r="F148" s="5">
         <v>0.68</v>
       </c>
-      <c r="G148" s="14">
+      <c r="G148" s="13">
         <v>0.87</v>
       </c>
-      <c r="H148" s="14">
+      <c r="H148" s="13">
         <v>0.86</v>
       </c>
       <c r="I148" s="6">
@@ -10430,7 +10849,7 @@
       <c r="K148" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M148" s="20"/>
+      <c r="M148" s="23"/>
       <c r="N148" s="4" t="s">
         <v>20</v>
       </c>
@@ -10460,7 +10879,7 @@
       </c>
     </row>
     <row r="149" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B149" s="20"/>
+      <c r="B149" s="23"/>
       <c r="C149" s="4" t="s">
         <v>21</v>
       </c>
@@ -10488,7 +10907,7 @@
       <c r="K149" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M149" s="20"/>
+      <c r="M149" s="23"/>
       <c r="N149" s="4" t="s">
         <v>21</v>
       </c>
@@ -10518,7 +10937,7 @@
       </c>
     </row>
     <row r="150" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B150" s="20"/>
+      <c r="B150" s="23"/>
       <c r="C150" s="4" t="s">
         <v>23</v>
       </c>
@@ -10546,9 +10965,13 @@
         <f t="shared" si="42"/>
         <v>0.67199999999999993</v>
       </c>
-      <c r="J150" s="7"/>
-      <c r="K150" s="7"/>
-      <c r="M150" s="20"/>
+      <c r="J150" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M150" s="23"/>
       <c r="N150" s="4" t="s">
         <v>23</v>
       </c>
@@ -10576,33 +10999,41 @@
         <f t="shared" si="43"/>
         <v>0.66600000000000004</v>
       </c>
-      <c r="U150" s="7"/>
-      <c r="V150" s="7"/>
+      <c r="U150" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="V150" s="7" t="s">
+        <v>354</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B139:B144"/>
-    <mergeCell ref="M139:M144"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="M145:M150"/>
-    <mergeCell ref="B121:B126"/>
-    <mergeCell ref="M121:M126"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="M127:M132"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="M133:M138"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="M103:M108"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="M109:M114"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="M115:M120"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="M85:M90"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="M91:M96"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="M97:M102"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="M20:M25"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="M38:M43"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="M44:M49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="M50:M55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="M56:M61"/>
     <mergeCell ref="U84:V84"/>
     <mergeCell ref="B62:B67"/>
     <mergeCell ref="M62:M67"/>
@@ -10615,32 +11046,28 @@
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="J84:K84"/>
     <mergeCell ref="M84:N84"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="M44:M49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="M50:M55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="M56:M61"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="M26:M31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="M32:M37"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="M38:M43"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="M14:M19"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="M20:M25"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="M85:M90"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="M91:M96"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="M97:M102"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="M103:M108"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="M109:M114"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="M115:M120"/>
+    <mergeCell ref="B139:B144"/>
+    <mergeCell ref="M139:M144"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="M145:M150"/>
+    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="M121:M126"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="M127:M132"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="M133:M138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
